--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20835" windowHeight="8355" activeTab="2"/>
+    <workbookView windowWidth="27795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -303,10 +303,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -341,7 +341,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,25 +355,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,7 +371,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,23 +395,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,9 +409,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,18 +444,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,6 +459,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -489,187 +489,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,20 +683,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,15 +713,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -736,6 +724,44 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,153 +780,127 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -909,30 +909,30 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1264,7 +1264,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1497,10 +1497,10 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1556,7 +1556,7 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E3 E4:E5 E6:E1048576">
       <formula1>Browser</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
@@ -1577,7 +1577,7 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
@@ -1671,7 +1671,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1750,7 +1750,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1805,7 +1805,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -15,6 +15,7 @@
     <sheet name="HomePage" sheetId="1" r:id="rId6"/>
     <sheet name="SearchResultPage" sheetId="21" r:id="rId7"/>
     <sheet name="LoginPage" sheetId="22" r:id="rId8"/>
+    <sheet name="RichTextTestPage" sheetId="23" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="Acceptable">PageObjectModel!$I$2:$I$4</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
   <si>
     <t>Page</t>
   </si>
@@ -88,7 +89,7 @@
     <t>YesNo</t>
   </si>
   <si>
-    <t>Click</t>
+    <t>click</t>
   </si>
   <si>
     <t>chrome</t>
@@ -112,7 +113,7 @@
     <t>YES</t>
   </si>
   <si>
-    <t>Enter</t>
+    <t>enter</t>
   </si>
   <si>
     <t>firefox</t>
@@ -133,7 +134,7 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Focus</t>
+    <t>focus</t>
   </si>
   <si>
     <t>ie</t>
@@ -148,43 +149,43 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Blur</t>
+    <t>blur</t>
   </si>
   <si>
     <t>LoginButton</t>
   </si>
   <si>
-    <t>Select</t>
+    <t>select</t>
   </si>
   <si>
     <t>PasswordError</t>
   </si>
   <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>Double Click</t>
-  </si>
-  <si>
-    <t>Hover</t>
-  </si>
-  <si>
-    <t>Wait For Ready</t>
-  </si>
-  <si>
-    <t>Wait To Click</t>
-  </si>
-  <si>
-    <t>Wait To Hide</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>Get</t>
-  </si>
-  <si>
-    <t>Size</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>doubleClick</t>
+  </si>
+  <si>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>waitForVisible</t>
+  </si>
+  <si>
+    <t>waitForClickable</t>
+  </si>
+  <si>
+    <t>waitForHidden</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>[value]</t>
@@ -202,7 +203,16 @@
     <t>[attr]</t>
   </si>
   <si>
-    <t>Click If Visible</t>
+    <t>clickIfVisible</t>
+  </si>
+  <si>
+    <t>selectPartialContent</t>
+  </si>
+  <si>
+    <t>waitToPresent</t>
+  </si>
+  <si>
+    <t>waitForCheck</t>
   </si>
   <si>
     <t>TestCase ID</t>
@@ -229,6 +239,15 @@
     <t>https://cn.bing.com/</t>
   </si>
   <si>
+    <t>RichTextTest</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>http://localhost:8000/#/</t>
+  </si>
+  <si>
     <t>default</t>
   </si>
   <si>
@@ -271,6 +290,9 @@
     <t>Login</t>
   </si>
   <si>
+    <t>RichTextTestPage</t>
+  </si>
+  <si>
     <t>TestGroup ID</t>
   </si>
   <si>
@@ -296,6 +318,12 @@
   </si>
   <si>
     <t>zhaocxhey3@163.com</t>
+  </si>
+  <si>
+    <t>RichTextBox[1]</t>
+  </si>
+  <si>
+    <t>0,5</t>
   </si>
 </sst>
 </file>
@@ -341,7 +369,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,9 +382,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,62 +412,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,18 +436,40 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,6 +480,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -489,43 +517,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,67 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,67 +697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,17 +711,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,6 +744,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -728,40 +768,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,64 +797,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,85 +946,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1259,12 +1287,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1483,6 +1511,21 @@
     <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1513,36 +1556,36 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1551,8 +1594,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="4:4">
-      <c r="D3" s="2"/>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1565,6 +1625,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://cn.bing.com/"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://localhost:8000/#/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1595,34 +1656,34 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1666,15 +1727,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.5047619047619" customWidth="1"/>
     <col min="2" max="2" width="20.3714285714286" customWidth="1"/>
@@ -1682,13 +1743,13 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1704,7 +1765,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1715,12 +1776,23 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1762,10 +1834,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -1773,13 +1845,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +1877,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10:B11"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1819,27 +1891,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1848,15 +1920,15 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1889,7 +1961,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1900,27 +1972,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -1952,7 +2024,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
@@ -1962,27 +2034,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -1991,15 +2063,15 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -2011,10 +2083,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2025,10 +2097,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -2042,10 +2114,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -2056,10 +2128,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -2070,10 +2142,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -2100,4 +2172,71 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="21.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="19.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+      <formula1>ActionKeyWords</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>ContactPage</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>TestCaseID</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView windowWidth="27795" windowHeight="12585" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>Page</t>
   </si>
@@ -206,15 +206,24 @@
     <t>clickIfVisible</t>
   </si>
   <si>
+    <t>waitTextToBePresented</t>
+  </si>
+  <si>
+    <t>waitForCheck</t>
+  </si>
+  <si>
+    <t>waitUtilSelected</t>
+  </si>
+  <si>
+    <t>clickAndHold</t>
+  </si>
+  <si>
+    <t>dragAndDropByOffset</t>
+  </si>
+  <si>
     <t>selectPartialContent</t>
   </si>
   <si>
-    <t>waitToPresent</t>
-  </si>
-  <si>
-    <t>waitForCheck</t>
-  </si>
-  <si>
     <t>TestCase ID</t>
   </si>
   <si>
@@ -320,7 +329,7 @@
     <t>zhaocxhey3@163.com</t>
   </si>
   <si>
-    <t>RichTextBox[1]</t>
+    <t>RichTextBox</t>
   </si>
   <si>
     <t>0,5</t>
@@ -331,9 +340,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -368,13 +377,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -389,11 +392,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,25 +415,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,14 +437,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -465,9 +444,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,6 +468,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -489,8 +490,16 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,187 +526,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,33 +722,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,159 +787,181 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1287,12 +1296,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1528,6 +1537,21 @@
         <v>51</v>
       </c>
     </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1540,7 +1564,7 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
@@ -1556,36 +1580,36 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1596,16 +1620,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1656,34 +1680,34 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1743,13 +1767,13 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1765,7 +1789,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1776,7 +1800,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1787,10 +1811,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1834,10 +1858,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -1845,13 +1869,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1891,27 +1915,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1920,15 +1944,15 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1972,27 +1996,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -2034,27 +2058,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2063,15 +2087,15 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -2083,10 +2107,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2097,10 +2121,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -2114,10 +2138,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -2128,10 +2152,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -2142,10 +2166,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -2179,8 +2203,8 @@
   <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -2192,36 +2216,36 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="93">
   <si>
     <t>Page</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>selectPartialContent</t>
+  </si>
+  <si>
+    <t>sendEnter</t>
   </si>
   <si>
     <t>TestCase ID</t>
@@ -340,9 +343,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -379,9 +382,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,8 +425,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -432,6 +451,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,6 +486,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -473,37 +507,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -532,13 +535,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,61 +697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,97 +709,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,11 +725,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,7 +736,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,6 +752,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,181 +820,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1296,12 +1300,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1314,35 +1318,35 @@
     <col min="9" max="9" width="10.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1356,7 +1360,7 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
@@ -1388,7 +1392,7 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
       <c r="E3" t="s">
         <v>20</v>
       </c>
@@ -1550,6 +1554,11 @@
     <row r="27" spans="2:2">
       <c r="B27" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1578,38 +1587,38 @@
     <col min="5" max="5" width="14.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:6">
-      <c r="A1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>59</v>
+      <c r="F1" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>62</v>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1620,16 +1629,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -1678,36 +1687,36 @@
     <col min="6" max="6" width="8.24761904761905" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>75</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1765,15 +1774,15 @@
     <col min="2" max="2" width="20.3714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>77</v>
+      <c r="C1" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1789,7 +1798,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1800,7 +1809,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1811,10 +1820,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1858,10 +1867,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -1869,13 +1878,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1915,27 +1924,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1944,15 +1953,15 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1996,27 +2005,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -2058,27 +2067,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2086,16 +2095,16 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>89</v>
+      <c r="E2" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -2103,14 +2112,14 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2121,10 +2130,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -2138,10 +2147,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -2152,10 +2161,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -2166,10 +2175,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -2201,13 +2210,13 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="21.7142857142857" customWidth="1"/>
@@ -2216,37 +2225,54 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
       </c>
       <c r="E2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
         <v>91</v>
       </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5">
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="3">

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -16,6 +16,7 @@
     <sheet name="SearchResultPage" sheetId="21" r:id="rId7"/>
     <sheet name="LoginPage" sheetId="22" r:id="rId8"/>
     <sheet name="RichTextTestPage" sheetId="23" r:id="rId9"/>
+    <sheet name="OffsetClickPage" sheetId="24" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="Acceptable">PageObjectModel!$I$2:$I$4</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
   <si>
     <t>Page</t>
   </si>
@@ -227,6 +228,9 @@
     <t>sendEnter</t>
   </si>
   <si>
+    <t>rightClick</t>
+  </si>
+  <si>
     <t>TestCase ID</t>
   </si>
   <si>
@@ -260,6 +264,12 @@
     <t>http://localhost:8000/#/</t>
   </si>
   <si>
+    <t>OffsetClick</t>
+  </si>
+  <si>
+    <t>https://antirobot.tianyancha.com/captcha/verify?return_url=https%3A%2F%2Fwww.tianyancha.com%2Fsearch%2FocH-e15-s2%3Fbase%3Dhangzhou%26areaCode%3D330185&amp;rnd=%22</t>
+  </si>
+  <si>
     <t>default</t>
   </si>
   <si>
@@ -336,6 +346,12 @@
   </si>
   <si>
     <t>0,5</t>
+  </si>
+  <si>
+    <t>drogAndDropRichBox</t>
+  </si>
+  <si>
+    <t>135,42,135,400</t>
   </si>
 </sst>
 </file>
@@ -343,8 +359,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -380,6 +396,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -393,13 +423,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -434,16 +457,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -451,6 +466,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,8 +486,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,36 +523,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -529,13 +545,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,169 +695,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,6 +736,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -741,28 +766,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,6 +796,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -797,150 +822,141 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,29 +965,28 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1300,12 +1315,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1318,35 +1333,35 @@
     <col min="9" max="9" width="10.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1360,7 +1375,7 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
@@ -1392,7 +1407,7 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" t="s">
         <v>20</v>
       </c>
@@ -1559,6 +1574,11 @@
     <row r="28" spans="2:2">
       <c r="B28" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1568,18 +1588,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+      <formula1>ActionKeyWords</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>ContactPage</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>TestCaseID</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="28.6285714285714" customWidth="1"/>
     <col min="2" max="2" width="38.752380952381" customWidth="1"/>
@@ -1587,38 +1669,38 @@
     <col min="5" max="5" width="14.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>60</v>
+      <c r="F1" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>63</v>
+      <c r="D2" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1629,22 +1711,36 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>66</v>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1652,13 +1748,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E3 E4:E5 E6:E1048576">
       <formula1>Browser</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C5:C6 C7:C1048576">
       <formula1>Boolean</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://cn.bing.com/"/>
     <hyperlink ref="D3" r:id="rId2" display="http://localhost:8000/#/"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://antirobot.tianyancha.com/captcha/verify?return_url=https%3A%2F%2Fwww.tianyancha.com%2Fsearch%2FocH-e15-s2%3Fbase%3Dhangzhou%26areaCode%3D330185&amp;rnd=%22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1687,36 +1784,36 @@
     <col min="6" max="6" width="8.24761904761905" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:10">
-      <c r="A1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="5" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>76</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1774,15 +1871,15 @@
     <col min="2" max="2" width="20.3714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>78</v>
+      <c r="C1" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1798,7 +1895,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1809,7 +1906,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1820,10 +1917,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1867,10 +1964,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -1878,13 +1975,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1924,27 +2021,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1953,15 +2050,15 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -2005,27 +2102,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -2067,27 +2164,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2095,16 +2192,16 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>90</v>
+      <c r="E2" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -2112,14 +2209,14 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2130,10 +2227,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -2147,10 +2244,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -2161,10 +2258,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -2175,10 +2272,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -2213,7 +2310,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -2225,54 +2322,68 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="5:5">
-      <c r="E4" s="2"/>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12585" activeTab="8"/>
+    <workbookView windowWidth="27795" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="104">
   <si>
     <t>Page</t>
   </si>
@@ -315,6 +315,9 @@
     <t>RichTextTestPage</t>
   </si>
   <si>
+    <t>OffsetClickPage</t>
+  </si>
+  <si>
     <t>TestGroup ID</t>
   </si>
   <si>
@@ -352,6 +355,21 @@
   </si>
   <si>
     <t>135,42,135,400</t>
+  </si>
+  <si>
+    <t>BgImgie</t>
+  </si>
+  <si>
+    <t>moveByOffsetFromElement</t>
+  </si>
+  <si>
+    <t>100,90</t>
+  </si>
+  <si>
+    <t>clickAtCurrentPosition</t>
+  </si>
+  <si>
+    <t>50,60</t>
   </si>
 </sst>
 </file>
@@ -359,10 +377,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -397,7 +415,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,6 +423,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -418,69 +450,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,6 +475,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -510,8 +490,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,49 +563,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,79 +725,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,48 +744,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,48 +754,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -798,11 +774,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,97 +810,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,28 +953,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,28 +983,29 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1317,10 +1336,10 @@
   <sheetPr/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1333,35 +1352,35 @@
     <col min="9" max="9" width="10.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1375,7 +1394,7 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
@@ -1407,7 +1426,7 @@
       <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="7"/>
       <c r="E3" t="s">
         <v>20</v>
       </c>
@@ -1427,7 +1446,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -1591,29 +1613,35 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="14.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="21.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="30.8571428571429" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1621,16 +1649,61 @@
         <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1658,7 +1731,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1669,23 +1742,23 @@
     <col min="5" max="5" width="14.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1699,7 +1772,7 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>64</v>
       </c>
       <c r="E2" t="s">
@@ -1717,9 +1790,9 @@
         <v>66</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>67</v>
       </c>
       <c r="E3" t="s">
@@ -1737,9 +1810,9 @@
         <v>66</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1784,35 +1857,35 @@
     <col min="6" max="6" width="8.24761904761905" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:10">
+      <c r="A1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1857,7 +1930,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1865,20 +1938,20 @@
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.5047619047619" customWidth="1"/>
     <col min="2" max="2" width="20.3714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1923,6 +1996,17 @@
         <v>84</v>
       </c>
       <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1967,7 +2051,7 @@
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>20</v>
@@ -1978,10 +2062,10 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2024,16 +2108,16 @@
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2041,7 +2125,7 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2050,7 +2134,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2058,7 +2142,7 @@
         <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -2105,16 +2189,16 @@
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2122,7 +2206,7 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -2167,16 +2251,16 @@
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2184,7 +2268,7 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2192,8 +2276,8 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>93</v>
+      <c r="E2" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2201,7 +2285,7 @@
         <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -2209,14 +2293,14 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2230,7 +2314,7 @@
         <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -2247,7 +2331,7 @@
         <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -2261,7 +2345,7 @@
         <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -2275,7 +2359,7 @@
         <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -2309,7 +2393,7 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2325,16 +2409,16 @@
         <v>57</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2342,16 +2426,16 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s">
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2359,10 +2443,10 @@
         <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>55</v>
@@ -2373,16 +2457,16 @@
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,19 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12585"/>
+    <workbookView windowWidth="27795" windowHeight="12585" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
     <sheet name="TestCases" sheetId="3" r:id="rId2"/>
     <sheet name="Config" sheetId="17" r:id="rId3"/>
     <sheet name="Flow" sheetId="19" r:id="rId4"/>
-    <sheet name="Searching" sheetId="20" r:id="rId5"/>
-    <sheet name="HomePage" sheetId="1" r:id="rId6"/>
-    <sheet name="SearchResultPage" sheetId="21" r:id="rId7"/>
-    <sheet name="LoginPage" sheetId="22" r:id="rId8"/>
-    <sheet name="RichTextTestPage" sheetId="23" r:id="rId9"/>
-    <sheet name="OffsetClickPage" sheetId="24" r:id="rId10"/>
+    <sheet name="AnnotationLoginPage" sheetId="22" r:id="rId5"/>
+    <sheet name="AnnotationHomePage" sheetId="23" r:id="rId6"/>
+    <sheet name="AnnotationImplementPage" sheetId="24" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Acceptable">PageObjectModel!$I$2:$I$4</definedName>
@@ -25,7 +22,7 @@
     <definedName name="AdditionalTwoPage">PageObjectModel!#REF!</definedName>
     <definedName name="Boolean">PageObjectModel!$H$2:$H$3</definedName>
     <definedName name="Browser">PageObjectModel!$C$2:$C$7</definedName>
-    <definedName name="ContactPage">PageObjectModel!$E$2:$E$25</definedName>
+    <definedName name="ContactPage">PageObjectModel!#REF!</definedName>
     <definedName name="CustomCoveragePage">PageObjectModel!#REF!</definedName>
     <definedName name="DriverAssignmentPage">PageObjectModel!#REF!</definedName>
     <definedName name="DriverInfoPage">PageObjectModel!#REF!</definedName>
@@ -41,7 +38,7 @@
     <definedName name="NewUsedVehOptions">PageObjectModel!#REF!</definedName>
     <definedName name="Occupation">PageObjectModel!#REF!</definedName>
     <definedName name="OwnershipStatusOptions">PageObjectModel!#REF!</definedName>
-    <definedName name="Page">PageObjectModel!$A$2:$A$4</definedName>
+    <definedName name="Page">PageObjectModel!$A$2:$A$3</definedName>
     <definedName name="QuickCoveragePage">PageObjectModel!#REF!</definedName>
     <definedName name="QuoteConfirmationPage">PageObjectModel!#REF!</definedName>
     <definedName name="Relation">PageObjectModel!#REF!</definedName>
@@ -58,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
   <si>
     <t>Page</t>
   </si>
@@ -72,13 +69,13 @@
     <t>Flows</t>
   </si>
   <si>
-    <t>HomePage</t>
-  </si>
-  <si>
-    <t>SearchResultPage</t>
-  </si>
-  <si>
-    <t>LoginPage</t>
+    <t>AnnotationLoginPage</t>
+  </si>
+  <si>
+    <t>AnnotationHomePage</t>
+  </si>
+  <si>
+    <t>AnnotationImplementPage</t>
   </si>
   <si>
     <t>Boolean</t>
@@ -99,13 +96,13 @@
     <t>Searching</t>
   </si>
   <si>
-    <t>Keyword</t>
-  </si>
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Email</t>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>AnnotainMenu</t>
+  </si>
+  <si>
+    <t>RichTextBox</t>
   </si>
   <si>
     <t>ACCEPT</t>
@@ -120,13 +117,10 @@
     <t>firefox</t>
   </si>
   <si>
-    <t>SearchboxForm</t>
-  </si>
-  <si>
-    <t>UserIcon</t>
-  </si>
-  <si>
-    <t>NextButton</t>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>MyTaskSubMenu</t>
   </si>
   <si>
     <t>DECLINE</t>
@@ -141,10 +135,10 @@
     <t>ie</t>
   </si>
   <si>
-    <t>SearchBtn</t>
-  </si>
-  <si>
-    <t>Password</t>
+    <t>LoginButton</t>
+  </si>
+  <si>
+    <t>FirstTask</t>
   </si>
   <si>
     <t>N/A</t>
@@ -153,15 +147,12 @@
     <t>blur</t>
   </si>
   <si>
-    <t>LoginButton</t>
+    <t>TestTask</t>
   </si>
   <si>
     <t>select</t>
   </si>
   <si>
-    <t>PasswordError</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
@@ -219,18 +210,21 @@
     <t>clickAndHold</t>
   </si>
   <si>
-    <t>dragAndDropByOffset</t>
-  </si>
-  <si>
-    <t>selectPartialContent</t>
-  </si>
-  <si>
-    <t>sendEnter</t>
+    <t>drogAndDropRichBox</t>
+  </si>
+  <si>
+    <t>selectPartialContext</t>
+  </si>
+  <si>
+    <t>sendKey</t>
   </si>
   <si>
     <t>rightClick</t>
   </si>
   <si>
+    <t>sendKeyByRobot</t>
+  </si>
+  <si>
     <t>TestCase ID</t>
   </si>
   <si>
@@ -246,28 +240,13 @@
     <t>Remote Hub</t>
   </si>
   <si>
-    <t>SEARCHING_01</t>
-  </si>
-  <si>
-    <t>search by bing</t>
-  </si>
-  <si>
-    <t>https://cn.bing.com/</t>
-  </si>
-  <si>
-    <t>RichTextTest</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>http://localhost:8000/#/</t>
-  </si>
-  <si>
-    <t>OffsetClick</t>
-  </si>
-  <si>
-    <t>https://antirobot.tianyancha.com/captcha/verify?return_url=https%3A%2F%2Fwww.tianyancha.com%2Fsearch%2FocH-e15-s2%3Fbase%3Dhangzhou%26areaCode%3D330185&amp;rnd=%22</t>
+    <t>AnnotationTool</t>
+  </si>
+  <si>
+    <t>annotation tool</t>
+  </si>
+  <si>
+    <t>http://192.168.198.202/annotation-tool/#/user/login</t>
   </si>
   <si>
     <t>default</t>
@@ -306,70 +285,43 @@
     <t>Template</t>
   </si>
   <si>
-    <t>SearchResult</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
-    <t>RichTextTestPage</t>
-  </si>
-  <si>
-    <t>OffsetClickPage</t>
+    <t>ChooseAnnotaion</t>
+  </si>
+  <si>
+    <t>ImplementAnnotation</t>
   </si>
   <si>
     <t>TestGroup ID</t>
   </si>
   <si>
+    <t>Target Name</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
     <t>TS_01</t>
   </si>
   <si>
-    <t>selenium</t>
-  </si>
-  <si>
-    <t>Target Name</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>TS_02</t>
-  </si>
-  <si>
-    <t>TS_03</t>
-  </si>
-  <si>
-    <t>zhaocxhey3@163.com</t>
-  </si>
-  <si>
-    <t>RichTextBox</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>drogAndDropRichBox</t>
-  </si>
-  <si>
-    <t>135,42,135,400</t>
-  </si>
-  <si>
-    <t>BgImgie</t>
-  </si>
-  <si>
-    <t>moveByOffsetFromElement</t>
-  </si>
-  <si>
-    <t>100,90</t>
-  </si>
-  <si>
-    <t>clickAtCurrentPosition</t>
-  </si>
-  <si>
-    <t>50,60</t>
+    <t>dong</t>
+  </si>
+  <si>
+    <t>10,10,800,300</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>0,10</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -377,10 +329,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -406,14 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -429,14 +373,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,22 +448,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -474,45 +456,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -529,16 +480,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -569,181 +521,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,11 +724,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,6 +772,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -811,203 +798,168 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1334,21 +1286,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.3714285714286" customWidth="1"/>
+    <col min="1" max="1" width="24.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="13.1238095238095" customWidth="1"/>
     <col min="3" max="3" width="9.87619047619048" customWidth="1"/>
     <col min="4" max="4" width="13.8761904761905" customWidth="1"/>
-    <col min="5" max="7" width="16.8761904761905" customWidth="1"/>
+    <col min="5" max="7" width="20.8571428571429" customWidth="1"/>
     <col min="9" max="9" width="10.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1433,17 +1385,14 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1451,156 +1400,158 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" t="s">
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1610,131 +1561,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="17.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="14.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="21.2857142857143" customWidth="1"/>
-    <col min="4" max="4" width="30.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
-      <formula1>ActionKeyWords</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>ContactPage</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
-      <formula1>TestCaseID</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="28.6285714285714" customWidth="1"/>
     <col min="2" max="2" width="38.752380952381" customWidth="1"/>
@@ -1744,91 +1582,49 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:6">
       <c r="A1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E3 E4:E5 E6:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2 E3:E1048576">
       <formula1>Browser</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C4 C5:C6 C7:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2:C3 C4:C1048576">
       <formula1>Boolean</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://cn.bing.com/"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://localhost:8000/#/"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://antirobot.tianyancha.com/captcha/verify?return_url=https%3A%2F%2Fwww.tianyancha.com%2Fsearch%2FocH-e15-s2%3Fbase%3Dhangzhou%26areaCode%3D330185&amp;rnd=%22"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://192.168.198.202/annotation-tool/#/user/login" tooltip="http://192.168.198.202/annotation-tool/#/user/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1844,7 +1640,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1859,34 +1655,34 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:10">
       <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1930,45 +1726,45 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="16.5047619047619" customWidth="1"/>
-    <col min="2" max="2" width="20.3714285714286" customWidth="1"/>
+    <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="27.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1979,7 +1775,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1988,37 +1784,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+      <formula1>PageObjectModel!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C1048576">
       <formula1>Boolean</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2 B8:B1048576">
-      <formula1>Page</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A2 A8:A1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A3:A1048576">
       <formula1>Flow</formula1>
     </dataValidation>
   </dataValidations>
@@ -2031,54 +1805,113 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.1238095238095" customWidth="1"/>
-    <col min="2" max="2" width="11.6285714285714" customWidth="1"/>
-    <col min="3" max="3" width="14.1238095238095" customWidth="1"/>
+    <col min="1" max="1" width="15.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="10.5714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D4 D5 D6 D7 D8">
+      <formula1>ActionKeyWords</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C5 C6:C1048576">
+      <formula1>PageObjectModel!$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8">
       <formula1>TestCaseID</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 C1:XFD1">
-      <formula1>ContactPage</formula1>
-    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="dong"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2086,144 +1919,129 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.247619047619" customWidth="1"/>
-    <col min="2" max="2" width="11.6285714285714" customWidth="1"/>
-    <col min="3" max="3" width="16.5047619047619" customWidth="1"/>
-    <col min="4" max="4" width="11.3714285714286" customWidth="1"/>
-    <col min="5" max="5" width="28.247619047619" customWidth="1"/>
+    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D4 D5 D6 D7">
       <formula1>ActionKeyWords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C3 C5:C1048576">
-      <formula1>ContactPage</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C4 C7 C2:C3 C5:C6 C8:C1048576">
+      <formula1>PageObjectModel!$F:$F</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
-      <formula1>TestCaseID</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="17.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="19.1428571428571" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3">
-      <formula1>ActionKeyWords</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>ContactPage</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -2232,252 +2050,131 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.5714285714286" customWidth="1"/>
+    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="31.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>94</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>52</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D4 D5 D6 D7 D8">
-      <formula1>ActionKeyWords</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D1:D2 D7:D1048576">
+      <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>ContactPage</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C6 C1:C2 C7:C1048576">
+      <formula1>PageObjectModel!$G:$G</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8">
-      <formula1>TestCaseID</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="zhaocxhey3@163.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="21.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="19.4285714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
-      <formula1>ActionKeyWords</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>ContactPage</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="97">
   <si>
     <t>Page</t>
   </si>
@@ -123,6 +123,9 @@
     <t>MyTaskSubMenu</t>
   </si>
   <si>
+    <t>Selections[1]</t>
+  </si>
+  <si>
     <t>DECLINE</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
     <t>FirstTask</t>
   </si>
   <si>
+    <t>Selections[2]</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -219,10 +225,13 @@
     <t>sendKey</t>
   </si>
   <si>
+    <t>sendKeyByRobot</t>
+  </si>
+  <si>
     <t>rightClick</t>
   </si>
   <si>
-    <t>sendKeyByRobot</t>
+    <t>[css](background-color)</t>
   </si>
   <si>
     <t>TestCase ID</t>
@@ -312,6 +321,9 @@
     <t>dong</t>
   </si>
   <si>
+    <t>Parameter</t>
+  </si>
+  <si>
     <t>10,10,800,300</t>
   </si>
   <si>
@@ -322,6 +334,18 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>rgba(205, 79, 57, 1)</t>
+  </si>
+  <si>
+    <t>50,60</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>rgba(204, 152, 229,1)</t>
   </si>
 </sst>
 </file>
@@ -329,10 +353,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -359,23 +383,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,64 +420,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,8 +443,47 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,11 +504,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -527,31 +551,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,133 +671,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +730,48 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -739,24 +805,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -782,151 +830,127 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,22 +959,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1286,12 +1310,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1385,14 +1409,17 @@
       <c r="F3" t="s">
         <v>21</v>
       </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1400,158 +1427,166 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1582,36 +1617,36 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1655,34 +1690,34 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:10">
       <c r="A1" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1742,18 +1777,18 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1764,7 +1799,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1775,7 +1810,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1819,41 +1854,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1862,15 +1897,15 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1884,13 +1919,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1922,7 +1957,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1933,27 +1968,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1965,10 +2000,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -1979,27 +2014,27 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -2007,27 +2042,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -2053,128 +2088,199 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="31.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D1:D2 D7:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D1:D2 D11:D1048576">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C6 C1:C2 C7:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C6 C7 C8 C9 C10 C1:C2 C11:C1048576">
       <formula1>PageObjectModel!$G:$G</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12585" activeTab="6"/>
+    <workbookView windowWidth="20835" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="Acceptable">PageObjectModel!$I$2:$I$4</definedName>
-    <definedName name="ActionKeyWords">PageObjectModel!$B$2:$B$25</definedName>
+    <definedName name="ActionKeyWords">PageObjectModel!$B$2:$B$23</definedName>
     <definedName name="AdditionalOnePage">PageObjectModel!#REF!</definedName>
     <definedName name="AdditionalTwoPage">PageObjectModel!#REF!</definedName>
     <definedName name="Boolean">PageObjectModel!$H$2:$H$3</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="99">
   <si>
     <t>Page</t>
   </si>
@@ -156,9 +156,15 @@
     <t>TestTask</t>
   </si>
   <si>
+    <t>Selections[3]</t>
+  </si>
+  <si>
     <t>select</t>
   </si>
   <si>
+    <t>AddIcon</t>
+  </si>
+  <si>
     <t>check</t>
   </si>
   <si>
@@ -195,12 +201,6 @@
     <t>[class]</t>
   </si>
   <si>
-    <t>[css]</t>
-  </si>
-  <si>
-    <t>[attr]</t>
-  </si>
-  <si>
     <t>clickIfVisible</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>[css](background-color)</t>
   </si>
   <si>
+    <t>[attr](style)</t>
+  </si>
+  <si>
     <t>TestCase ID</t>
   </si>
   <si>
@@ -330,7 +333,7 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>0,10</t>
+    <t>双肺呼吸音清</t>
   </si>
   <si>
     <t>D</t>
@@ -339,13 +342,16 @@
     <t>rgba(205, 79, 57, 1)</t>
   </si>
   <si>
-    <t>50,60</t>
+    <t>无红肿、渗出</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
     <t>rgba(204, 152, 229,1)</t>
+  </si>
+  <si>
+    <t>抗炎，强心利尿治疗</t>
   </si>
 </sst>
 </file>
@@ -353,10 +359,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -390,7 +396,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,6 +410,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -412,11 +425,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,6 +437,14 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -442,17 +463,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,6 +472,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,30 +503,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,8 +516,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,187 +545,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,6 +744,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,6 +782,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -771,21 +807,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,21 +826,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -833,85 +839,85 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,37 +926,37 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,19 +965,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1310,12 +1316,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1451,142 +1457,143 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" t="s">
         <v>31</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1617,36 +1624,36 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1675,7 +1682,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1690,34 +1697,34 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:10">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1746,7 +1753,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -1777,18 +1784,18 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1799,7 +1806,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1810,7 +1817,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1854,41 +1861,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1897,15 +1904,15 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1919,10 +1926,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1968,27 +1975,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -2000,10 +2007,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2014,24 +2021,24 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -2042,24 +2049,24 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2088,10 +2095,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2103,45 +2110,45 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -2150,15 +2157,15 @@
         <v>53</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -2167,15 +2174,15 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -2184,15 +2191,15 @@
         <v>54</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -2201,15 +2208,15 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -2218,15 +2225,15 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -2235,15 +2242,15 @@
         <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -2252,15 +2259,15 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -2269,18 +2276,83 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D1:D2 D11:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D14 D1:D2 D11:D13 D15:D1048576">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C6 C7 C8 C9 C10 C1:C2 C11:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C6 C7 C8 C9 C10 C13 C14 C1:C2 C11:C12 C15:C1048576">
       <formula1>PageObjectModel!$G:$G</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20835" windowHeight="8355"/>
+    <workbookView windowWidth="27795" windowHeight="12585" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="99">
   <si>
     <t>Page</t>
   </si>
@@ -237,6 +237,9 @@
     <t>[attr](style)</t>
   </si>
   <si>
+    <t>takescreen</t>
+  </si>
+  <si>
     <t>TestCase ID</t>
   </si>
   <si>
@@ -322,9 +325,6 @@
   </si>
   <si>
     <t>dong</t>
-  </si>
-  <si>
-    <t>Parameter</t>
   </si>
   <si>
     <t>10,10,800,300</t>
@@ -360,8 +360,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -396,7 +396,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,17 +418,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -433,8 +432,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,13 +465,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -477,17 +478,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,6 +502,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -510,15 +518,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,187 +545,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,6 +744,56 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,45 +822,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -825,138 +836,127 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,19 +965,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1316,12 +1316,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7:G9"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1594,6 +1594,11 @@
     <row r="30" spans="2:2">
       <c r="B30" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1624,36 +1629,36 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1697,34 +1702,34 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:10">
       <c r="A1" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1784,18 +1789,18 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1806,7 +1811,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1817,7 +1822,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1861,27 +1866,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1892,10 +1897,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1904,15 +1909,15 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1926,10 +1931,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1975,27 +1980,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -2007,10 +2012,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2021,10 +2026,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -2035,10 +2040,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -2049,10 +2054,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -2063,10 +2068,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2095,45 +2100,42 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="31.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2145,10 +2147,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -2162,10 +2164,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -2179,10 +2181,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -2196,10 +2198,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -2213,10 +2215,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -2230,10 +2232,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -2247,10 +2249,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -2264,10 +2266,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -2281,10 +2283,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -2298,10 +2300,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -2312,10 +2314,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -2329,10 +2331,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -2342,6 +2344,20 @@
       </c>
       <c r="E14" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2352,7 +2368,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C6 C7 C8 C9 C10 C13 C14 C1:C2 C11:C12 C15:C1048576">
       <formula1>PageObjectModel!$G:$G</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="103">
   <si>
     <t>Page</t>
   </si>
@@ -219,7 +219,7 @@
     <t>drogAndDropRichBox</t>
   </si>
   <si>
-    <t>selectPartialContext</t>
+    <t>selectPartialContextByContext</t>
   </si>
   <si>
     <t>sendKey</t>
@@ -240,6 +240,9 @@
     <t>takescreen</t>
   </si>
   <si>
+    <t>selectPartialContextByIndex</t>
+  </si>
+  <si>
     <t>TestCase ID</t>
   </si>
   <si>
@@ -352,6 +355,15 @@
   </si>
   <si>
     <t>抗炎，强心利尿治疗</t>
+  </si>
+  <si>
+    <t>25,35</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>rgba(206, 206, 206, 1)</t>
   </si>
 </sst>
 </file>
@@ -360,9 +372,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -396,14 +408,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,16 +453,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,16 +476,39 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,50 +529,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -545,181 +557,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,6 +756,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,9 +786,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,174 +842,133 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,19 +977,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1316,12 +1328,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1599,6 +1611,11 @@
     <row r="31" spans="2:2">
       <c r="B31" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1629,36 +1646,36 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1687,7 +1704,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1702,34 +1719,34 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:10">
       <c r="A1" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1737,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -1789,18 +1806,18 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1811,7 +1828,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1822,7 +1839,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1866,27 +1883,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1897,10 +1914,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1909,15 +1926,15 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1931,10 +1948,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1980,27 +1997,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -2012,10 +2029,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2026,10 +2043,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
@@ -2040,10 +2057,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -2054,10 +2071,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -2068,10 +2085,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2100,10 +2117,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:H20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2115,27 +2132,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -2147,10 +2164,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -2159,15 +2176,15 @@
         <v>53</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -2176,15 +2193,15 @@
         <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -2193,15 +2210,15 @@
         <v>54</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -2210,15 +2227,15 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -2227,15 +2244,15 @@
         <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -2244,15 +2261,15 @@
         <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -2261,15 +2278,15 @@
         <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -2278,15 +2295,15 @@
         <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
@@ -2295,15 +2312,15 @@
         <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -2314,10 +2331,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -2326,15 +2343,15 @@
         <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -2343,32 +2360,83 @@
         <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D14 D1:D2 D11:D13 D15:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D14 D15 D16 D17 D18 D1:D2 D11:D13 D19:D1048576">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C6 C7 C8 C9 C10 C13 C14 C1:C2 C11:C12 C15:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C6 C7 C8 C9 C10 C13 C14 C15 C16 C17 C18 C1:C2 C11:C12 C19:C1048576">
       <formula1>PageObjectModel!$G:$G</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
   <si>
     <t>Page</t>
   </si>
@@ -168,30 +168,57 @@
     <t>check</t>
   </si>
   <si>
+    <t>Dropdowns[1]</t>
+  </si>
+  <si>
     <t>doubleClick</t>
   </si>
   <si>
+    <t>Dropdowns[2]</t>
+  </si>
+  <si>
     <t>hover</t>
   </si>
   <si>
+    <t>Dropdowns[3]</t>
+  </si>
+  <si>
     <t>waitForVisible</t>
   </si>
   <si>
+    <t>ActiveOptions[1]</t>
+  </si>
+  <si>
     <t>waitForClickable</t>
   </si>
   <si>
+    <t>ActiveOptions[2]</t>
+  </si>
+  <si>
     <t>waitForHidden</t>
   </si>
   <si>
+    <t>ActiveOptions[3]</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
+    <t>SelectedOptions[1]</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
+    <t>SelectedOptions[2]</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>SelectedOptions[3]</t>
+  </si>
+  <si>
     <t>[value]</t>
   </si>
   <si>
@@ -219,7 +246,7 @@
     <t>drogAndDropRichBox</t>
   </si>
   <si>
-    <t>selectPartialContextByContext</t>
+    <t>selectPartialContextByIndex</t>
   </si>
   <si>
     <t>sendKey</t>
@@ -240,9 +267,6 @@
     <t>takescreen</t>
   </si>
   <si>
-    <t>selectPartialContextByIndex</t>
-  </si>
-  <si>
     <t>TestCase ID</t>
   </si>
   <si>
@@ -336,7 +360,7 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>双肺呼吸音清</t>
+    <t>22,28</t>
   </si>
   <si>
     <t>D</t>
@@ -345,7 +369,7 @@
     <t>rgba(205, 79, 57, 1)</t>
   </si>
   <si>
-    <t>无红肿、渗出</t>
+    <t>73,79</t>
   </si>
   <si>
     <t>C</t>
@@ -354,7 +378,7 @@
     <t>rgba(204, 152, 229,1)</t>
   </si>
   <si>
-    <t>抗炎，强心利尿治疗</t>
+    <t>114,123</t>
   </si>
   <si>
     <t>25,35</t>
@@ -364,6 +388,12 @@
   </si>
   <si>
     <t>rgba(206, 206, 206, 1)</t>
+  </si>
+  <si>
+    <t>InspPalpBreasts</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -372,8 +402,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -401,7 +431,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,31 +444,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -453,23 +460,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,7 +476,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,15 +500,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,17 +543,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,6 +558,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -557,43 +587,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,139 +761,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,15 +778,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -784,13 +805,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,32 +859,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,124 +881,124 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -977,22 +1007,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1328,12 +1358,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1488,134 +1518,156 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1646,36 +1698,36 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1719,34 +1771,34 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:10">
       <c r="A1" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1806,18 +1858,18 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1828,7 +1880,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1839,7 +1891,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1883,41 +1935,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -1926,15 +1978,15 @@
         <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -1948,10 +2000,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -1997,27 +2049,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -2029,10 +2081,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -2043,24 +2095,24 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -2071,24 +2123,24 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2117,10 +2169,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2132,195 +2184,195 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>96</v>
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>99</v>
+        <v>63</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -2331,112 +2383,202 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D18" t="s">
-        <v>60</v>
+      <c r="D24" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D14 D15 D16 D17 D18 D1:D2 D11:D13 D19:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D14 D15 D16 D17 D22 D23 D24 D1:D2 D12:D13 D18:D19 D20:D21 D25:D1048576">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C6 C7 C8 C9 C10 C13 C14 C15 C16 C17 C18 C1:C2 C11:C12 C19:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C6 C7 C8 C9 C10 C13 C14 C15 C16 C17 C22 C23 C24 C1:C2 C11:C12 C18:C19 C20:C21 C25:C1048576">
       <formula1>PageObjectModel!$G:$G</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27795" windowHeight="12585" activeTab="6"/>
+    <workbookView windowWidth="20835" windowHeight="8355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -402,9 +402,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -445,10 +445,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,6 +467,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -474,17 +490,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,31 +529,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -551,16 +559,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,19 +593,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,157 +737,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,26 +781,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,21 +816,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,151 +854,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,7 +1108,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FBFBFB"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1753,10 +1753,10 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1764,7 +1764,7 @@
     <col min="1" max="1" width="9.37142857142857" customWidth="1"/>
     <col min="2" max="2" width="9.5047619047619" customWidth="1"/>
     <col min="3" max="3" width="10.1238095238095" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="4" max="4" width="10.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="6.87619047619048" customWidth="1"/>
     <col min="6" max="6" width="8.24761904761905" customWidth="1"/>
   </cols>
@@ -1812,7 +1812,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>60</v>
@@ -1827,7 +1827,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -1924,12 +1924,14 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="16.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="15.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="10.5714285714286"/>
   </cols>
   <sheetData>
@@ -2171,15 +2173,15 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="31.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="41.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20835" windowHeight="8355" activeTab="2"/>
+    <workbookView windowWidth="27765" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -14,13 +14,17 @@
     <sheet name="AnnotationLoginPage" sheetId="22" r:id="rId5"/>
     <sheet name="AnnotationHomePage" sheetId="23" r:id="rId6"/>
     <sheet name="AnnotationImplementPage" sheetId="24" r:id="rId7"/>
+    <sheet name="CCMLoginPage" sheetId="25" r:id="rId8"/>
+    <sheet name="CCMMemberPage" sheetId="26" r:id="rId9"/>
+    <sheet name="CCMChronicPage" sheetId="27" r:id="rId10"/>
+    <sheet name="CCMEnrollmentPage" sheetId="28" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="Acceptable">PageObjectModel!$I$2:$I$4</definedName>
+    <definedName name="Acceptable">PageObjectModel!$M$2:$M$4</definedName>
     <definedName name="ActionKeyWords">PageObjectModel!$B$2:$B$23</definedName>
     <definedName name="AdditionalOnePage">PageObjectModel!#REF!</definedName>
     <definedName name="AdditionalTwoPage">PageObjectModel!#REF!</definedName>
-    <definedName name="Boolean">PageObjectModel!$H$2:$H$3</definedName>
+    <definedName name="Boolean">PageObjectModel!$L$2:$L$3</definedName>
     <definedName name="Browser">PageObjectModel!$C$2:$C$7</definedName>
     <definedName name="ContactPage">PageObjectModel!#REF!</definedName>
     <definedName name="CustomCoveragePage">PageObjectModel!#REF!</definedName>
@@ -48,14 +52,14 @@
     <definedName name="VehicleOwnedMonthsOptions">PageObjectModel!#REF!</definedName>
     <definedName name="VehicleUsage">PageObjectModel!#REF!</definedName>
     <definedName name="Violations">PageObjectModel!#REF!</definedName>
-    <definedName name="YesNo">PageObjectModel!$J$2:$J$4</definedName>
+    <definedName name="YesNo">PageObjectModel!$N$2:$N$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="136">
   <si>
     <t>Page</t>
   </si>
@@ -78,6 +82,18 @@
     <t>AnnotationImplementPage</t>
   </si>
   <si>
+    <t>CCMLoginPage</t>
+  </si>
+  <si>
+    <t>CCMMemberPage</t>
+  </si>
+  <si>
+    <t>CCMChronicPage</t>
+  </si>
+  <si>
+    <t>CCMEnrollmentPage</t>
+  </si>
+  <si>
     <t>Boolean</t>
   </si>
   <si>
@@ -105,6 +121,15 @@
     <t>RichTextBox</t>
   </si>
   <si>
+    <t>NextPageButton</t>
+  </si>
+  <si>
+    <t>CCMOrRPMPanel</t>
+  </si>
+  <si>
+    <t>DemographicsButton</t>
+  </si>
+  <si>
     <t>ACCEPT</t>
   </si>
   <si>
@@ -126,6 +151,15 @@
     <t>Selections[1]</t>
   </si>
   <si>
+    <t>Member40</t>
+  </si>
+  <si>
+    <t>CCMMemberTabs</t>
+  </si>
+  <si>
+    <t>PrimaryCareId</t>
+  </si>
+  <si>
     <t>DECLINE</t>
   </si>
   <si>
@@ -147,6 +181,9 @@
     <t>Selections[2]</t>
   </si>
   <si>
+    <t>GenderDropdown</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -159,18 +196,27 @@
     <t>Selections[3]</t>
   </si>
   <si>
+    <t>ActiveOptions[1]</t>
+  </si>
+  <si>
     <t>select</t>
   </si>
   <si>
     <t>AddIcon</t>
   </si>
   <si>
+    <t>ActiveOptions[2]</t>
+  </si>
+  <si>
     <t>check</t>
   </si>
   <si>
     <t>Dropdowns[1]</t>
   </si>
   <si>
+    <t>ActiveOptions[3]</t>
+  </si>
+  <si>
     <t>doubleClick</t>
   </si>
   <si>
@@ -186,21 +232,12 @@
     <t>waitForVisible</t>
   </si>
   <si>
-    <t>ActiveOptions[1]</t>
-  </si>
-  <si>
     <t>waitForClickable</t>
   </si>
   <si>
-    <t>ActiveOptions[2]</t>
-  </si>
-  <si>
     <t>waitForHidden</t>
   </si>
   <si>
-    <t>ActiveOptions[3]</t>
-  </si>
-  <si>
     <t>clear</t>
   </si>
   <si>
@@ -291,6 +328,15 @@
     <t>http://192.168.198.202/annotation-tool/#/user/login</t>
   </si>
   <si>
+    <t>ChronicCare</t>
+  </si>
+  <si>
+    <t>chronic-care demo</t>
+  </si>
+  <si>
+    <t>http://192.168.198.202/chronic-care/#/login</t>
+  </si>
+  <si>
     <t>default</t>
   </si>
   <si>
@@ -327,7 +373,7 @@
     <t>Template</t>
   </si>
   <si>
-    <t>Login</t>
+    <t>AnnotationLogin</t>
   </si>
   <si>
     <t>ChooseAnnotaion</t>
@@ -336,6 +382,18 @@
     <t>ImplementAnnotation</t>
   </si>
   <si>
+    <t>CCMLogin</t>
+  </si>
+  <si>
+    <t>CCMMemberList</t>
+  </si>
+  <si>
+    <t>CCMChronic</t>
+  </si>
+  <si>
+    <t>CCMEnrollment</t>
+  </si>
+  <si>
     <t>TestGroup ID</t>
   </si>
   <si>
@@ -394,6 +452,21 @@
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>Jenny@meddataquest.com</t>
+  </si>
+  <si>
+    <t>clickByJS</t>
+  </si>
+  <si>
+    <t>CCM</t>
+  </si>
+  <si>
+    <t>enrollment</t>
+  </si>
+  <si>
+    <t>hz 910</t>
   </si>
 </sst>
 </file>
@@ -402,9 +475,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -424,14 +497,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,22 +520,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,71 +548,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -559,12 +571,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -587,25 +660,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,157 +840,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,6 +851,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -791,6 +897,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -820,21 +941,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -845,194 +951,163 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1358,12 +1433,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1372,302 +1447,362 @@
     <col min="2" max="2" width="13.1238095238095" customWidth="1"/>
     <col min="3" max="3" width="9.87619047619048" customWidth="1"/>
     <col min="4" max="4" width="13.8761904761905" customWidth="1"/>
-    <col min="5" max="7" width="20.8571428571429" customWidth="1"/>
-    <col min="9" max="9" width="10.1238095238095" customWidth="1"/>
+    <col min="5" max="11" width="20.8571428571429" customWidth="1"/>
+    <col min="13" max="13" width="10.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:14">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="b">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="b">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D3" s="9"/>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="b">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>50</v>
+      </c>
+      <c r="K7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1677,18 +1812,200 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="23.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C1:C2 C5:C1048576">
+      <formula1>PageObjectModel!$J:$J</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D4">
+      <formula1>ActionKeyWords</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4">
+      <formula1>TestCaseID</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="22.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5">
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C3:C1048576">
+      <formula1>PageObjectModel!$K:$K</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+      <formula1>PageObjectModel!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
+      <formula1>ActionKeyWords</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3">
+      <formula1>TestCaseID</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="28.6285714285714" customWidth="1"/>
     <col min="2" max="2" width="38.752380952381" customWidth="1"/>
@@ -1696,38 +2013,58 @@
     <col min="5" max="5" width="14.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="F1" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>77</v>
+      <c r="D3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1741,6 +2078,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://192.168.198.202/annotation-tool/#/user/login" tooltip="http://192.168.198.202/annotation-tool/#/user/login"/>
+    <hyperlink ref="D3" r:id="rId2" display="http://192.168.198.202/chronic-care/#/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1753,10 +2091,10 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1769,36 +2107,36 @@
     <col min="6" max="6" width="8.24761904761905" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:10">
-      <c r="A1" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>87</v>
+    <row r="1" s="6" customFormat="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1827,7 +2165,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -1842,34 +2180,34 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="27.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" s="6" customFormat="1" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>89</v>
+      <c r="C1" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1880,7 +2218,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1891,12 +2229,56 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1905,7 +2287,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>PageObjectModel!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C5 C6 C7 C8 C3:C4 C9:C1048576">
       <formula1>Boolean</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A3:A1048576">
@@ -1924,7 +2306,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1937,64 +2319,64 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>98</v>
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4">
         <v>12345678</v>
@@ -2002,16 +2384,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2051,104 +2433,104 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2556,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2186,390 +2568,390 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>99</v>
+        <v>73</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2587,4 +2969,202 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="19.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="17.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="20.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="26.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D4 D5">
+      <formula1>ActionKeyWords</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C5">
+      <formula1>PageObjectModel!$E:$E</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5">
+      <formula1>TestCaseID</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="Jenny@meddataquest.com" tooltip="mailto:Jenny@meddataquest.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="20.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="23.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="9.57142857142857"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:5">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C1:C2 C4:C1048576">
+      <formula1>PageObjectModel!$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
+      <formula1>ActionKeyWords</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3">
+      <formula1>TestCaseID</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" tooltip="mailto:Jenny@meddataquest.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510"/>
+    <workbookView windowWidth="27765" windowHeight="12510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="139">
   <si>
     <t>Page</t>
   </si>
@@ -223,6 +223,9 @@
     <t>Dropdowns[2]</t>
   </si>
   <si>
+    <t>BirthDate</t>
+  </si>
+  <si>
     <t>hover</t>
   </si>
   <si>
@@ -304,6 +307,18 @@
     <t>takescreen</t>
   </si>
   <si>
+    <t>select_ccm</t>
+  </si>
+  <si>
+    <t>select_rpm</t>
+  </si>
+  <si>
+    <t>select_enrollment</t>
+  </si>
+  <si>
+    <t>select_first_date_of_next_month</t>
+  </si>
+  <si>
     <t>TestCase ID</t>
   </si>
   <si>
@@ -458,12 +473,6 @@
   </si>
   <si>
     <t>clickByJS</t>
-  </si>
-  <si>
-    <t>CCM</t>
-  </si>
-  <si>
-    <t>enrollment</t>
   </si>
   <si>
     <t>hz 910</t>
@@ -474,10 +483,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -512,6 +521,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -526,8 +549,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,7 +611,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -555,25 +633,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -586,58 +647,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -660,7 +669,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,13 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,7 +777,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,145 +849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,8 +866,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,15 +907,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -902,17 +922,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -932,146 +946,141 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1080,26 +1089,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
@@ -1107,7 +1116,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1433,12 +1441,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1461,7 +1469,7 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -1505,7 +1513,7 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
@@ -1549,7 +1557,7 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="8"/>
       <c r="E3" t="s">
         <v>27</v>
       </c>
@@ -1661,25 +1669,31 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
       <c r="B8" t="s">
         <v>52</v>
       </c>
       <c r="G8" t="s">
         <v>53</v>
       </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1687,7 +1701,7 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
@@ -1695,7 +1709,7 @@
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
@@ -1703,106 +1717,126 @@
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1818,87 +1852,82 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="23.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="21.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+      <formula1>PageObjectModel!$B:$B</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C1:C2 C5:C1048576">
       <formula1>PageObjectModel!$J:$J</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D4">
-      <formula1>ActionKeyWords</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4">
       <formula1>TestCaseID</formula1>
@@ -1912,13 +1941,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="22.2857142857143" customWidth="1"/>
@@ -1926,27 +1955,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1955,37 +1984,63 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="5:5">
-      <c r="E4" t="s">
-        <v>135</v>
+      <c r="D5" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C3:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C1:C2 C3:C4 C6:C1048576">
       <formula1>PageObjectModel!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
       <formula1>ActionKeyWords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -2015,36 +2070,36 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -2052,16 +2107,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>91</v>
+      <c r="D3" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -2091,10 +2146,10 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2109,34 +2164,34 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2150,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>60</v>
@@ -2165,7 +2220,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -2185,7 +2240,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -2196,18 +2251,18 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2218,7 +2273,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2229,7 +2284,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2240,7 +2295,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -2251,7 +2306,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2262,7 +2317,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2273,7 +2328,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2319,41 +2374,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -2362,15 +2417,15 @@
         <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2384,10 +2439,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -2433,27 +2488,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2465,10 +2520,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -2479,24 +2534,24 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -2507,24 +2562,24 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -2568,195 +2623,195 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
@@ -2767,98 +2822,98 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -2866,10 +2921,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -2880,10 +2935,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -2894,10 +2949,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
         <v>48</v>
@@ -2908,50 +2963,50 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2977,7 +3032,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -2990,41 +3045,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -3033,15 +3088,15 @@
         <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3055,10 +3110,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -3105,27 +3160,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -3136,16 +3191,16 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E3" s="2"/>
     </row>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" activeTab="2"/>
+    <workbookView windowWidth="27765" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="Acceptable">PageObjectModel!$M$2:$M$4</definedName>
-    <definedName name="ActionKeyWords">PageObjectModel!$B$2:$B$23</definedName>
+    <definedName name="ActionKeyWords">PageObjectModel!$B$2:$B$24</definedName>
     <definedName name="AdditionalOnePage">PageObjectModel!#REF!</definedName>
     <definedName name="AdditionalTwoPage">PageObjectModel!#REF!</definedName>
     <definedName name="Boolean">PageObjectModel!$L$2:$L$3</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="140">
   <si>
     <t>Page</t>
   </si>
@@ -241,24 +241,27 @@
     <t>waitForHidden</t>
   </si>
   <si>
+    <t>waitSpecificTime</t>
+  </si>
+  <si>
+    <t>SelectedOptions[1]</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
-    <t>SelectedOptions[1]</t>
+    <t>SelectedOptions[2]</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
-    <t>SelectedOptions[2]</t>
+    <t>SelectedOptions[3]</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>SelectedOptions[3]</t>
-  </si>
-  <si>
     <t>[value]</t>
   </si>
   <si>
@@ -304,7 +307,7 @@
     <t>[attr](style)</t>
   </si>
   <si>
-    <t>takescreen</t>
+    <t>takeScreen</t>
   </si>
   <si>
     <t>select_ccm</t>
@@ -358,7 +361,7 @@
     <t>operation</t>
   </si>
   <si>
-    <t>async</t>
+    <t>waitOrDelay</t>
   </si>
   <si>
     <t>redirect</t>
@@ -483,10 +486,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -534,13 +537,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -550,18 +546,32 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,16 +591,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,13 +600,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,32 +614,40 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -675,7 +678,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,49 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,31 +810,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,25 +834,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -807,49 +852,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,13 +884,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,6 +914,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -918,15 +934,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,159 +953,155 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1441,12 +1444,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1839,6 +1842,11 @@
         <v>85</v>
       </c>
     </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1849,13 +1857,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="23.1428571428571" customWidth="1"/>
@@ -1864,72 +1872,58 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2 D3:D1048576">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C1:C2 C5:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C1:C2 C4:C1048576">
       <formula1>PageObjectModel!$J:$J</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -1944,7 +1938,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1955,41 +1949,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1998,35 +1992,35 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2054,10 +2048,10 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2070,36 +2064,36 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -2107,16 +2101,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>96</v>
+      <c r="D3" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -2146,17 +2140,17 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="9.37142857142857" customWidth="1"/>
     <col min="2" max="2" width="9.5047619047619" customWidth="1"/>
-    <col min="3" max="3" width="10.1238095238095" customWidth="1"/>
+    <col min="3" max="3" width="11.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="10.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="6.87619047619048" customWidth="1"/>
     <col min="6" max="6" width="8.24761904761905" customWidth="1"/>
@@ -2164,45 +2158,45 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>30</v>
@@ -2251,18 +2245,18 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2273,7 +2267,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2284,7 +2278,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2295,7 +2289,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -2306,7 +2300,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2317,7 +2311,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2328,7 +2322,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2374,27 +2368,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -2405,10 +2399,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -2417,15 +2411,15 @@
         <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2439,10 +2433,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -2488,27 +2482,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2520,10 +2514,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -2534,10 +2528,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
@@ -2548,10 +2542,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -2562,10 +2556,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -2576,10 +2570,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -2611,7 +2605,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2623,27 +2617,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -2655,163 +2649,163 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
@@ -2822,95 +2816,95 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
@@ -2921,10 +2915,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -2935,10 +2929,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -2949,10 +2943,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
         <v>48</v>
@@ -2963,50 +2957,50 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3045,27 +3039,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -3076,10 +3070,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -3088,15 +3082,15 @@
         <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3110,10 +3104,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -3160,27 +3154,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -3191,16 +3185,16 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E3" s="2"/>
     </row>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" activeTab="1"/>
+    <workbookView windowWidth="27765" windowHeight="12510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="163">
   <si>
     <t>Page</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Selections[2]</t>
   </si>
   <si>
-    <t>GenderDropdown</t>
+    <t>Gender</t>
   </si>
   <si>
     <t>N/A</t>
@@ -232,57 +232,102 @@
     <t>Dropdowns[3]</t>
   </si>
   <si>
+    <t>Organization</t>
+  </si>
+  <si>
     <t>waitForVisible</t>
   </si>
   <si>
+    <t>Facility</t>
+  </si>
+  <si>
     <t>waitForClickable</t>
   </si>
   <si>
+    <t>City</t>
+  </si>
+  <si>
     <t>waitForHidden</t>
   </si>
   <si>
+    <t>CityInput</t>
+  </si>
+  <si>
     <t>waitSpecificTime</t>
   </si>
   <si>
     <t>SelectedOptions[1]</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
     <t>SelectedOptions[2]</t>
   </si>
   <si>
+    <t>AdvancedDirectivesOptions[1]</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
     <t>SelectedOptions[3]</t>
   </si>
   <si>
+    <t>AdvancedDirectivesOptions[2]</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>AdvancedDirectivesOptions[3]</t>
+  </si>
+  <si>
     <t>[value]</t>
   </si>
   <si>
+    <t>HomePhoneNumber</t>
+  </si>
+  <si>
     <t>[text]</t>
   </si>
   <si>
+    <t>HomePhoneNumberExt</t>
+  </si>
+  <si>
     <t>[class]</t>
   </si>
   <si>
+    <t>CellNumber</t>
+  </si>
+  <si>
     <t>clickIfVisible</t>
   </si>
   <si>
+    <t>CellNumberExt</t>
+  </si>
+  <si>
     <t>waitTextToBePresented</t>
   </si>
   <si>
+    <t>HomePhoneNumberPerferred</t>
+  </si>
+  <si>
     <t>waitForCheck</t>
   </si>
   <si>
+    <t>CellNumberPerferred</t>
+  </si>
+  <si>
     <t>waitUtilSelected</t>
   </si>
   <si>
+    <t>SubmitButton</t>
+  </si>
+  <si>
     <t>clickAndHold</t>
   </si>
   <si>
@@ -322,6 +367,9 @@
     <t>select_first_date_of_next_month</t>
   </si>
   <si>
+    <t>[css](border-bottom-color)</t>
+  </si>
+  <si>
     <t>TestCase ID</t>
   </si>
   <si>
@@ -479,6 +527,27 @@
   </si>
   <si>
     <t>hz 910</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>ShuRuiTECH</t>
+  </si>
+  <si>
+    <t>West Lake Test</t>
+  </si>
+  <si>
+    <t>Hollywood</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>1231231234</t>
+  </si>
+  <si>
+    <t>rgba(245, 34, 45,1)</t>
   </si>
 </sst>
 </file>
@@ -486,10 +555,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -530,26 +599,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,14 +615,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -584,6 +645,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -591,15 +660,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,8 +684,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,25 +714,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -672,7 +741,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,7 +765,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,19 +807,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,133 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,17 +953,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -914,15 +977,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -934,6 +988,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,107 +1018,111 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,28 +1131,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,19 +1161,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1114,9 +1183,9 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1444,12 +1513,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1686,165 +1755,215 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:11">
       <c r="B9" t="s">
         <v>55</v>
       </c>
       <c r="G9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="K12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>65</v>
+      </c>
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+        <v>68</v>
+      </c>
+      <c r="K14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
+        <v>71</v>
+      </c>
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>77</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>79</v>
+      </c>
+      <c r="K19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>81</v>
+      </c>
+      <c r="K20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+        <v>83</v>
+      </c>
+      <c r="K21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
+        <v>85</v>
+      </c>
+      <c r="K22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" t="s">
-        <v>73</v>
+        <v>87</v>
+      </c>
+      <c r="K23" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>86</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1979,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1872,47 +1991,47 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1935,55 +2054,57 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="22.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="31.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="32.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="10.5714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -1992,49 +2113,393 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C1:C2 C3:C4 C6:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C21 C22 C1:C2 C3:C4 C6:C7 C9:C16 C17:C20 C23:C1048576">
       <formula1>PageObjectModel!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
       <formula1>ActionKeyWords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -2048,7 +2513,7 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
@@ -2064,36 +2529,36 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>94</v>
+      <c r="D2" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -2101,16 +2566,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>97</v>
+      <c r="D3" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -2140,10 +2605,10 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2158,42 +2623,42 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -2205,7 +2670,7 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -2214,7 +2679,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -2245,18 +2710,18 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2267,7 +2732,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2278,7 +2743,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2289,7 +2754,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -2300,7 +2765,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2311,7 +2776,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2322,7 +2787,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2368,41 +2833,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -2410,16 +2875,16 @@
       <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>122</v>
+      <c r="E3" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2427,16 +2892,16 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>12345678</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -2482,27 +2947,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2510,14 +2975,14 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -2528,24 +2993,24 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -2556,24 +3021,24 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -2617,195 +3082,195 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>125</v>
+        <v>91</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>131</v>
+        <v>91</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C12" t="s">
         <v>47</v>
@@ -2816,95 +3281,95 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="E17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
         <v>56</v>
@@ -2915,10 +3380,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C19" t="s">
         <v>48</v>
@@ -2929,10 +3394,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C20" t="s">
         <v>50</v>
@@ -2943,10 +3408,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
         <v>48</v>
@@ -2957,50 +3422,50 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>135</v>
+        <v>77</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>136</v>
+        <v>77</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3039,41 +3504,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -3081,16 +3546,16 @@
       <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>137</v>
+      <c r="E3" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3098,16 +3563,16 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>12345678</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -3154,27 +3619,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -3185,18 +3650,18 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="E3" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="3">

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" activeTab="2"/>
+    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="163">
   <si>
     <t>Page</t>
   </si>
@@ -355,10 +355,10 @@
     <t>takeScreen</t>
   </si>
   <si>
-    <t>select_ccm</t>
-  </si>
-  <si>
-    <t>select_rpm</t>
+    <t>select_ccm_if_visible</t>
+  </si>
+  <si>
+    <t>select_rpm_if_visible</t>
   </si>
   <si>
     <t>select_enrollment</t>
@@ -1516,9 +1516,9 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1978,7 +1978,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2054,10 +2054,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2420,10 +2420,10 @@
         <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2434,13 +2434,13 @@
         <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>111</v>
       </c>
@@ -2448,13 +2448,10 @@
         <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>162</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2468,13 +2465,13 @@
         <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>111</v>
       </c>
@@ -2482,24 +2479,41 @@
         <v>137</v>
       </c>
       <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
         <v>88</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C21 C22 C1:C2 C3:C4 C6:C7 C9:C16 C17:C20 C23:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C21 C22 C23 C1:C2 C3:C4 C6:C7 C9:C16 C17:C20 C24:C1048576">
       <formula1>PageObjectModel!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
       <formula1>ActionKeyWords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -2605,10 +2619,10 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2670,7 +2684,7 @@
         <v>60</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>5</v>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="4" activeTab="9"/>
+    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="163">
   <si>
     <t>Page</t>
   </si>
@@ -1978,7 +1978,7 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2054,9 +2054,9 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -2502,18 +2502,32 @@
         <v>14</v>
       </c>
     </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C21 C22 C23 C1:C2 C3:C4 C6:C7 C9:C16 C17:C20 C24:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C21 C22 C23 C29 C1:C2 C3:C4 C6:C7 C9:C16 C17:C20 C24:C28 C30:C1048576">
       <formula1>PageObjectModel!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
       <formula1>ActionKeyWords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -3621,7 +3635,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="27765" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -14,10 +14,11 @@
     <sheet name="AnnotationLoginPage" sheetId="22" r:id="rId5"/>
     <sheet name="AnnotationHomePage" sheetId="23" r:id="rId6"/>
     <sheet name="AnnotationImplementPage" sheetId="24" r:id="rId7"/>
-    <sheet name="CCMLoginPage" sheetId="25" r:id="rId8"/>
-    <sheet name="CCMMemberPage" sheetId="26" r:id="rId9"/>
-    <sheet name="CCMChronicPage" sheetId="27" r:id="rId10"/>
-    <sheet name="CCMEnrollmentPage" sheetId="28" r:id="rId11"/>
+    <sheet name="Login" sheetId="29" r:id="rId8"/>
+    <sheet name="CCMLoginPage" sheetId="25" r:id="rId9"/>
+    <sheet name="CCMMemberPage" sheetId="26" r:id="rId10"/>
+    <sheet name="CCMChronicPage" sheetId="27" r:id="rId11"/>
+    <sheet name="CCMEnrollmentPage" sheetId="28" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Acceptable">PageObjectModel!$M$2:$M$4</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="167">
   <si>
     <t>Page</t>
   </si>
@@ -109,7 +110,7 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>Searching</t>
+    <t>Login</t>
   </si>
   <si>
     <t>UserName</t>
@@ -181,6 +182,9 @@
     <t>Selections[2]</t>
   </si>
   <si>
+    <t>MembersList</t>
+  </si>
+  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -331,9 +335,15 @@
     <t>clickAndHold</t>
   </si>
   <si>
+    <t>ErrorMessage[1]</t>
+  </si>
+  <si>
     <t>drogAndDropRichBox</t>
   </si>
   <si>
+    <t>ErrorMessage[2]</t>
+  </si>
+  <si>
     <t>selectPartialContextByIndex</t>
   </si>
   <si>
@@ -448,9 +458,6 @@
     <t>ImplementAnnotation</t>
   </si>
   <si>
-    <t>CCMLogin</t>
-  </si>
-  <si>
     <t>CCMMemberList</t>
   </si>
   <si>
@@ -523,7 +530,7 @@
     <t>Jenny@meddataquest.com</t>
   </si>
   <si>
-    <t>clickByJS</t>
+    <t>selectMemberByMID</t>
   </si>
   <si>
     <t>hz 910</t>
@@ -548,6 +555,12 @@
   </si>
   <si>
     <t>rgba(245, 34, 45,1)</t>
+  </si>
+  <si>
+    <t>Ext is wrong format!</t>
+  </si>
+  <si>
+    <t>Cell Number is required</t>
   </si>
 </sst>
 </file>
@@ -556,8 +569,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -599,6 +612,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -607,13 +657,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -629,42 +711,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -677,44 +727,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,6 +760,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -759,25 +862,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,139 +934,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,11 +957,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,6 +977,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,21 +1031,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1035,145 +1048,145 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1516,9 +1529,9 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1683,17 +1696,20 @@
       <c r="H4" t="s">
         <v>37</v>
       </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1701,16 +1717,16 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1718,13 +1734,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1732,13 +1748,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1746,224 +1762,230 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
+        <v>90</v>
+      </c>
+      <c r="K24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="K25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1984,6 +2006,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
+    <col min="1" max="1" width="20.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="23.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="25.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="9.57142857142857"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:5">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="3">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C1:C2 C4:C1048576">
+      <formula1>PageObjectModel!$I:$I</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
+      <formula1>ActionKeyWords</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3">
+      <formula1>TestCaseID</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="40" tooltip="mailto:Jenny@meddataquest.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
     <col min="1" max="1" width="15.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="23.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="21.2857142857143" customWidth="1"/>
@@ -1991,47 +2098,47 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2051,13 +2158,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2065,32 +2172,32 @@
     <col min="1" max="1" width="17.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="31.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="32.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="10.5714285714286"/>
+    <col min="5" max="5" width="11.7142857142857"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -2101,10 +2208,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -2113,46 +2220,46 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
@@ -2160,13 +2267,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
@@ -2174,30 +2281,30 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -2205,13 +2312,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -2219,47 +2326,47 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
@@ -2267,30 +2374,30 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
         <v>14</v>
@@ -2298,78 +2405,78 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -2380,154 +2487,188 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E21" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
         <v>78</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
         <v>25</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>1234</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <v>1234567890</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B29" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s">
-        <v>97</v>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C21 C22 C23 C29 C1:C2 C3:C4 C6:C7 C9:C16 C17:C20 C24:C28 C30:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C21 C22 C23 C24 C28 C31 C1:C2 C3:C4 C6:C7 C9:C16 C17:C20 C25:C27 C29:C30 C32:C1048576">
       <formula1>PageObjectModel!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
       <formula1>ActionKeyWords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -2541,10 +2682,10 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -2557,36 +2698,36 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -2594,16 +2735,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -2636,7 +2777,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2651,34 +2792,34 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2710,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2727,7 +2868,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -2738,18 +2879,18 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2760,7 +2901,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2771,7 +2912,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2782,18 +2923,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2804,7 +2945,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2815,7 +2956,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -2861,41 +3002,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -2904,15 +3045,15 @@
         <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -2926,10 +3067,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -2975,27 +3116,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3007,10 +3148,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -3021,27 +3162,27 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -3049,24 +3190,24 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -3110,198 +3251,198 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -3309,98 +3450,98 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -3408,13 +3549,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
@@ -3422,13 +3563,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -3436,13 +3577,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
         <v>14</v>
@@ -3450,50 +3591,50 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3516,10 +3657,71 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="12.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="2">
+        <v>12345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+      <formula1>TestCaseID</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 C1:XFD1">
+      <formula1>ContactPage</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Jenny@meddataquest.com" tooltip="mailto:Jenny@meddataquest.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -3532,41 +3734,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -3575,15 +3777,15 @@
         <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3597,10 +3799,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -3627,86 +3829,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="20.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="23.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="9.57142857142857"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:5">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="3"/>
-    </row>
-  </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C1:C2 C4:C1048576">
-      <formula1>PageObjectModel!$I:$I</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
-      <formula1>ActionKeyWords</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3">
-      <formula1>TestCaseID</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" tooltip="mailto:Jenny@meddataquest.com"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" activeTab="1"/>
+    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="170">
   <si>
     <t>Page</t>
   </si>
@@ -347,6 +347,9 @@
     <t>selectPartialContextByIndex</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>sendKey</t>
   </si>
   <si>
@@ -561,6 +564,12 @@
   </si>
   <si>
     <t>Cell Number is required</t>
+  </si>
+  <si>
+    <t>[regex](^[a-zA-Z0-9_.+-]+@[a-zA-Z0-9-]+\\.[a-zA-Z0-9-.]+$)</t>
+  </si>
+  <si>
+    <t>Email is wrong format</t>
   </si>
 </sst>
 </file>
@@ -569,9 +578,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -613,21 +622,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -635,7 +629,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,7 +644,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -659,9 +661,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -674,6 +683,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,41 +719,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -754,13 +763,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,151 +913,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,6 +932,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,21 +966,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -986,6 +980,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,6 +1014,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1020,173 +1040,162 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1531,7 +1540,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1928,64 +1937,67 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:11">
       <c r="B26" t="s">
         <v>94</v>
       </c>
+      <c r="K26" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2014,27 +2026,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -2045,16 +2057,16 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E3" s="3">
         <v>40</v>
@@ -2098,47 +2110,47 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2161,10 +2173,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2177,27 +2189,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -2208,10 +2220,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -2220,455 +2232,475 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
         <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
         <v>78</v>
       </c>
-      <c r="E12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
+      <c r="E15" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>25</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>163</v>
+      <c r="E19">
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
         <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20">
-        <v>123</v>
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23">
-        <v>1234</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>106</v>
+      </c>
+      <c r="E26" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="29" ht="12" customHeight="1" spans="1:5">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E29">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" ht="12" customHeight="1" spans="1:5">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
         <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C21 C22 C23 C24 C28 C31 C1:C2 C3:C4 C6:C7 C9:C16 C17:C20 C25:C27 C29:C30 C32:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C20 C21 C22 C23 C27 C28 C29 C30 C31 C32 C1:C2 C3:C4 C5:C6 C8:C15 C16:C19 C24:C26 C34:C1048576">
       <formula1>PageObjectModel!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
       <formula1>ActionKeyWords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -2682,7 +2714,7 @@
   <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
@@ -2698,36 +2730,36 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -2735,16 +2767,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -2792,34 +2824,34 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2879,18 +2911,18 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2901,7 +2933,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2912,7 +2944,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2934,7 +2966,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2945,7 +2977,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -2956,7 +2988,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -3002,27 +3034,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -3033,10 +3065,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -3045,15 +3077,15 @@
         <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3067,10 +3099,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -3116,27 +3148,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3148,10 +3180,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -3162,10 +3194,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -3176,10 +3208,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -3190,10 +3222,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -3204,10 +3236,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -3251,27 +3283,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -3283,10 +3315,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -3295,32 +3327,32 @@
         <v>92</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -3329,49 +3361,49 @@
         <v>94</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -3380,49 +3412,49 @@
         <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -3431,15 +3463,15 @@
         <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
@@ -3450,44 +3482,44 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -3496,49 +3528,49 @@
         <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
@@ -3549,10 +3581,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
@@ -3563,10 +3595,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
@@ -3577,10 +3609,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
@@ -3591,10 +3623,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
@@ -3603,15 +3635,15 @@
         <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" t="s">
         <v>69</v>
@@ -3620,21 +3652,21 @@
         <v>78</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -3672,10 +3704,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -3686,13 +3718,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2">
         <v>12345678</v>
@@ -3734,27 +3766,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -3765,10 +3797,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -3777,15 +3809,15 @@
         <v>25</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3799,10 +3831,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="6" activeTab="11"/>
+    <workbookView windowWidth="27765" windowHeight="12510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="172">
   <si>
     <t>Page</t>
   </si>
@@ -554,7 +554,7 @@
     <t>MD</t>
   </si>
   <si>
-    <t>1231231234</t>
+    <t>[regex]((^[0-9]{3}-[0-9]{3}-[0-9]{4}$)|(^[0-9]{10}$))</t>
   </si>
   <si>
     <t>rgba(245, 34, 45,1)</t>
@@ -563,13 +563,19 @@
     <t>Ext is wrong format!</t>
   </si>
   <si>
+    <t>[regex]((^[0-9]{4}$))</t>
+  </si>
+  <si>
     <t>Cell Number is required</t>
   </si>
   <si>
+    <t>z@.com</t>
+  </si>
+  <si>
+    <t>Email is wrong format</t>
+  </si>
+  <si>
     <t>[regex](^[a-zA-Z0-9_.+-]+@[a-zA-Z0-9-]+\\.[a-zA-Z0-9-.]+$)</t>
-  </si>
-  <si>
-    <t>Email is wrong format</t>
   </si>
 </sst>
 </file>
@@ -577,8 +583,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -600,7 +606,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,9 +614,24 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,25 +650,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,45 +664,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,15 +682,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -739,6 +730,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -763,7 +769,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,7 +793,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,19 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,13 +823,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +841,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,13 +865,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,19 +895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,43 +919,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -932,18 +950,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,8 +966,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,32 +975,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,10 +998,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1036,6 +1016,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,148 +1063,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1206,9 +1212,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2068,7 +2074,7 @@
       <c r="D3" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>40</v>
       </c>
     </row>
@@ -2173,10 +2179,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="$A26:$XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2184,7 +2190,7 @@
     <col min="1" max="1" width="17.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="31.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="32.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="11.7142857142857"/>
+    <col min="5" max="5" width="58.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -2530,8 +2536,8 @@
       <c r="D22" t="s">
         <v>25</v>
       </c>
-      <c r="E22">
-        <v>1234</v>
+      <c r="E22" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2607,7 +2613,7 @@
         <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2640,8 +2646,8 @@
       <c r="D29" t="s">
         <v>25</v>
       </c>
-      <c r="E29" t="s">
-        <v>168</v>
+      <c r="E29" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="30" ht="12" customHeight="1" spans="1:5">
@@ -2658,10 +2664,10 @@
         <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" ht="12" customHeight="1" spans="1:5">
       <c r="A31" t="s">
         <v>115</v>
       </c>
@@ -2669,10 +2675,13 @@
         <v>140</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2686,24 +2695,41 @@
         <v>89</v>
       </c>
       <c r="D32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C20 C21 C22 C23 C27 C28 C29 C30 C31 C32 C1:C2 C3:C4 C5:C6 C8:C15 C16:C19 C24:C26 C34:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C20 C21 C22 C23 C27 C28 C29 C30 C31 C32 C33 C1:C2 C3:C4 C5:C6 C8:C15 C16:C19 C24:C26 C34:C1048576">
       <formula1>PageObjectModel!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
       <formula1>ActionKeyWords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E29" r:id="rId1" display="z@.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2758,7 +2784,7 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>114</v>
       </c>
       <c r="E2" t="s">
@@ -2775,7 +2801,7 @@
       <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E3" t="s">
@@ -2806,10 +2832,10 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2862,7 +2888,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>30</v>
@@ -2880,7 +2906,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -3076,7 +3102,7 @@
       <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3311,7 +3337,7 @@
       <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -3723,7 +3749,7 @@
       <c r="B2" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D2" s="2">
@@ -3808,7 +3834,7 @@
       <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>156</v>
       </c>
     </row>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" activeTab="2"/>
+    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="Acceptable">PageObjectModel!$M$2:$M$4</definedName>
-    <definedName name="ActionKeyWords">PageObjectModel!$B$2:$B$24</definedName>
+    <definedName name="ActionKeyWords">PageObjectModel!$B$2:$B$22</definedName>
     <definedName name="AdditionalOnePage">PageObjectModel!#REF!</definedName>
     <definedName name="AdditionalTwoPage">PageObjectModel!#REF!</definedName>
     <definedName name="Boolean">PageObjectModel!$L$2:$L$3</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="171">
   <si>
     <t>Page</t>
   </si>
@@ -275,7 +275,7 @@
     <t>AdvancedDirectivesOptions[1]</t>
   </si>
   <si>
-    <t>get</t>
+    <t>[value]</t>
   </si>
   <si>
     <t>SelectedOptions[3]</t>
@@ -284,79 +284,76 @@
     <t>AdvancedDirectivesOptions[2]</t>
   </si>
   <si>
-    <t>size</t>
+    <t>[text]</t>
   </si>
   <si>
     <t>AdvancedDirectivesOptions[3]</t>
   </si>
   <si>
-    <t>[value]</t>
+    <t>[class]</t>
   </si>
   <si>
     <t>HomePhoneNumber</t>
   </si>
   <si>
-    <t>[text]</t>
+    <t>clickIfVisible</t>
   </si>
   <si>
     <t>HomePhoneNumberExt</t>
   </si>
   <si>
-    <t>[class]</t>
+    <t>waitTextToBePresented</t>
   </si>
   <si>
     <t>CellNumber</t>
   </si>
   <si>
-    <t>clickIfVisible</t>
+    <t>waitForCheck</t>
   </si>
   <si>
     <t>CellNumberExt</t>
   </si>
   <si>
-    <t>waitTextToBePresented</t>
+    <t>waitUtilSelected</t>
   </si>
   <si>
     <t>HomePhoneNumberPerferred</t>
   </si>
   <si>
-    <t>waitForCheck</t>
+    <t>clickAndHold</t>
   </si>
   <si>
     <t>CellNumberPerferred</t>
   </si>
   <si>
-    <t>waitUtilSelected</t>
+    <t>drogAndDropRichBox</t>
   </si>
   <si>
     <t>SubmitButton</t>
   </si>
   <si>
-    <t>clickAndHold</t>
+    <t>selectPartialContextByIndex</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>sendKey</t>
   </si>
   <si>
     <t>ErrorMessage[1]</t>
   </si>
   <si>
-    <t>drogAndDropRichBox</t>
+    <t>sendKeyByRobot</t>
   </si>
   <si>
     <t>ErrorMessage[2]</t>
   </si>
   <si>
-    <t>selectPartialContextByIndex</t>
+    <t>rightClick</t>
   </si>
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>sendKey</t>
-  </si>
-  <si>
-    <t>sendKeyByRobot</t>
-  </si>
-  <si>
-    <t>rightClick</t>
   </si>
   <si>
     <t>[css](background-color)</t>
@@ -583,10 +580,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -621,6 +618,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -635,15 +639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -656,8 +654,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -673,8 +686,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,6 +710,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -697,22 +732,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,29 +740,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,7 +766,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,13 +796,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,13 +832,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,139 +940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,11 +969,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,30 +1013,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,164 +1044,164 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1541,12 +1538,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1951,59 +1948,52 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:11">
       <c r="B27" t="s">
         <v>96</v>
       </c>
+      <c r="K27" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2032,27 +2022,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -2063,16 +2053,16 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" s="4">
         <v>40</v>
@@ -2116,47 +2106,47 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2181,8 +2171,8 @@
   <sheetPr/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="$A26:$XFD26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2195,27 +2185,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -2226,10 +2216,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -2238,29 +2228,29 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -2271,10 +2261,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -2285,27 +2275,27 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
         <v>58</v>
@@ -2316,10 +2306,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
         <v>49</v>
@@ -2330,44 +2320,44 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>62</v>
@@ -2378,10 +2368,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
         <v>64</v>
@@ -2390,15 +2380,15 @@
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
@@ -2409,44 +2399,44 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -2457,10 +2447,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
         <v>77</v>
@@ -2469,15 +2459,15 @@
         <v>25</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
         <v>79</v>
@@ -2491,44 +2481,44 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
         <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
         <v>79</v>
@@ -2537,15 +2527,15 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
         <v>81</v>
@@ -2556,10 +2546,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
         <v>87</v>
@@ -2570,10 +2560,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
         <v>89</v>
@@ -2584,44 +2574,44 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
         <v>81</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
         <v>81</v>
@@ -2635,61 +2625,61 @@
     </row>
     <row r="29" ht="12" customHeight="1" spans="1:5">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" ht="12" customHeight="1" spans="1:5">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" ht="12" customHeight="1" spans="1:5">
       <c r="A31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s">
         <v>89</v>
@@ -2700,16 +2690,16 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
         <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2756,36 +2746,36 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:6">
       <c r="A1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -2793,16 +2783,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" t="s">
         <v>115</v>
-      </c>
-      <c r="B3" t="s">
-        <v>116</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -2832,7 +2822,7 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
@@ -2850,34 +2840,34 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:10">
       <c r="A1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2937,18 +2927,18 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2959,7 +2949,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2970,7 +2960,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2992,7 +2982,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -3003,7 +2993,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -3014,7 +3004,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -3060,27 +3050,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -3091,10 +3081,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -3103,15 +3093,15 @@
         <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3125,10 +3115,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -3174,27 +3164,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3206,10 +3196,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -3220,10 +3210,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -3234,10 +3224,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>
@@ -3248,10 +3238,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -3262,10 +3252,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>38</v>
@@ -3309,27 +3299,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -3341,163 +3331,163 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
         <v>48</v>
@@ -3508,95 +3498,95 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
         <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" t="s">
         <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
         <v>57</v>
@@ -3607,10 +3597,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
@@ -3621,10 +3611,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
@@ -3635,10 +3625,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" t="s">
         <v>49</v>
@@ -3649,50 +3639,50 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
         <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
         <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3730,10 +3720,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>17</v>
@@ -3744,13 +3734,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2">
         <v>12345678</v>
@@ -3792,27 +3782,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -3823,10 +3813,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -3835,15 +3825,15 @@
         <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -3857,10 +3847,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="6" activeTab="11"/>
+    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="CCMMemberPage" sheetId="26" r:id="rId10"/>
     <sheet name="CCMChronicPage" sheetId="27" r:id="rId11"/>
     <sheet name="CCMEnrollmentPage" sheetId="28" r:id="rId12"/>
+    <sheet name="CCMChronicLogPage" sheetId="30" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="Acceptable">PageObjectModel!$M$2:$M$4</definedName>
+    <definedName name="Acceptable">PageObjectModel!$N$2:$N$4</definedName>
     <definedName name="ActionKeyWords">PageObjectModel!$B$2:$B$22</definedName>
     <definedName name="AdditionalOnePage">PageObjectModel!#REF!</definedName>
     <definedName name="AdditionalTwoPage">PageObjectModel!#REF!</definedName>
-    <definedName name="Boolean">PageObjectModel!$L$2:$L$3</definedName>
+    <definedName name="Boolean">PageObjectModel!$M$2:$M$3</definedName>
     <definedName name="Browser">PageObjectModel!$C$2:$C$7</definedName>
     <definedName name="ContactPage">PageObjectModel!#REF!</definedName>
     <definedName name="CustomCoveragePage">PageObjectModel!#REF!</definedName>
@@ -53,14 +54,14 @@
     <definedName name="VehicleOwnedMonthsOptions">PageObjectModel!#REF!</definedName>
     <definedName name="VehicleUsage">PageObjectModel!#REF!</definedName>
     <definedName name="Violations">PageObjectModel!#REF!</definedName>
-    <definedName name="YesNo">PageObjectModel!$N$2:$N$4</definedName>
+    <definedName name="YesNo">PageObjectModel!$O$2:$O$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="180">
   <si>
     <t>Page</t>
   </si>
@@ -95,6 +96,9 @@
     <t>CCMEnrollmentPage</t>
   </si>
   <si>
+    <t>CCMChronicLogPage</t>
+  </si>
+  <si>
     <t>Boolean</t>
   </si>
   <si>
@@ -128,405 +132,426 @@
     <t>CCMOrRPMPanel</t>
   </si>
   <si>
+    <t>CCMMemberTabs</t>
+  </si>
+  <si>
+    <t>LogList[1]</t>
+  </si>
+  <si>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>MyTaskSubMenu</t>
+  </si>
+  <si>
+    <t>Selections[1]</t>
+  </si>
+  <si>
+    <t>Member40</t>
+  </si>
+  <si>
     <t>DemographicsButton</t>
   </si>
   <si>
-    <t>ACCEPT</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>enter</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>MyTaskSubMenu</t>
-  </si>
-  <si>
-    <t>Selections[1]</t>
-  </si>
-  <si>
-    <t>Member40</t>
-  </si>
-  <si>
-    <t>CCMMemberTabs</t>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>DECLINE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>ie</t>
+  </si>
+  <si>
+    <t>LoginButton</t>
+  </si>
+  <si>
+    <t>FirstTask</t>
+  </si>
+  <si>
+    <t>Selections[2]</t>
+  </si>
+  <si>
+    <t>MembersList</t>
   </si>
   <si>
     <t>PrimaryCareId</t>
   </si>
   <si>
-    <t>DECLINE</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>focus</t>
-  </si>
-  <si>
-    <t>ie</t>
-  </si>
-  <si>
-    <t>LoginButton</t>
-  </si>
-  <si>
-    <t>FirstTask</t>
-  </si>
-  <si>
-    <t>Selections[2]</t>
-  </si>
-  <si>
-    <t>MembersList</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>blur</t>
+  </si>
+  <si>
+    <t>TestTask</t>
+  </si>
+  <si>
+    <t>Selections[3]</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>blur</t>
-  </si>
-  <si>
-    <t>TestTask</t>
-  </si>
-  <si>
-    <t>Selections[3]</t>
+    <t>HomePhoneNumber</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>AddIcon</t>
   </si>
   <si>
     <t>ActiveOptions[1]</t>
   </si>
   <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>AddIcon</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>Dropdowns[1]</t>
   </si>
   <si>
     <t>ActiveOptions[2]</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>Dropdowns[1]</t>
+    <t>doubleClick</t>
+  </si>
+  <si>
+    <t>Dropdowns[2]</t>
   </si>
   <si>
     <t>ActiveOptions[3]</t>
   </si>
   <si>
-    <t>doubleClick</t>
-  </si>
-  <si>
-    <t>Dropdowns[2]</t>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>Dropdowns[3]</t>
   </si>
   <si>
     <t>BirthDate</t>
   </si>
   <si>
-    <t>hover</t>
-  </si>
-  <si>
-    <t>Dropdowns[3]</t>
+    <t>waitForVisible</t>
   </si>
   <si>
     <t>Organization</t>
   </si>
   <si>
-    <t>waitForVisible</t>
+    <t>waitForClickable</t>
   </si>
   <si>
     <t>Facility</t>
   </si>
   <si>
-    <t>waitForClickable</t>
+    <t>waitForHidden</t>
   </si>
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>waitForHidden</t>
+    <t>waitSpecificTime</t>
+  </si>
+  <si>
+    <t>SelectedOptions[1]</t>
   </si>
   <si>
     <t>CityInput</t>
   </si>
   <si>
-    <t>waitSpecificTime</t>
-  </si>
-  <si>
-    <t>SelectedOptions[1]</t>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>SelectedOptions[2]</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>SelectedOptions[2]</t>
+    <t>[value]</t>
+  </si>
+  <si>
+    <t>SelectedOptions[3]</t>
   </si>
   <si>
     <t>AdvancedDirectivesOptions[1]</t>
   </si>
   <si>
-    <t>[value]</t>
-  </si>
-  <si>
-    <t>SelectedOptions[3]</t>
+    <t>[text]</t>
   </si>
   <si>
     <t>AdvancedDirectivesOptions[2]</t>
   </si>
   <si>
-    <t>[text]</t>
+    <t>[class]</t>
   </si>
   <si>
     <t>AdvancedDirectivesOptions[3]</t>
   </si>
   <si>
-    <t>[class]</t>
-  </si>
-  <si>
-    <t>HomePhoneNumber</t>
-  </si>
-  <si>
     <t>clickIfVisible</t>
   </si>
   <si>
+    <t>waitTextToBePresented</t>
+  </si>
+  <si>
     <t>HomePhoneNumberExt</t>
   </si>
   <si>
-    <t>waitTextToBePresented</t>
+    <t>waitForCheck</t>
   </si>
   <si>
     <t>CellNumber</t>
   </si>
   <si>
-    <t>waitForCheck</t>
+    <t>waitUtilSelected</t>
   </si>
   <si>
     <t>CellNumberExt</t>
   </si>
   <si>
-    <t>waitUtilSelected</t>
+    <t>clickAndHold</t>
   </si>
   <si>
     <t>HomePhoneNumberPerferred</t>
   </si>
   <si>
-    <t>clickAndHold</t>
+    <t>drogAndDropRichBox</t>
   </si>
   <si>
     <t>CellNumberPerferred</t>
   </si>
   <si>
-    <t>drogAndDropRichBox</t>
+    <t>selectPartialContextByIndex</t>
   </si>
   <si>
     <t>SubmitButton</t>
   </si>
   <si>
-    <t>selectPartialContextByIndex</t>
+    <t>sendKey</t>
   </si>
   <si>
     <t>ErrorMessage</t>
   </si>
   <si>
-    <t>sendKey</t>
+    <t>sendKeyByRobot</t>
   </si>
   <si>
     <t>ErrorMessage[1]</t>
   </si>
   <si>
-    <t>sendKeyByRobot</t>
+    <t>rightClick</t>
   </si>
   <si>
     <t>ErrorMessage[2]</t>
   </si>
   <si>
-    <t>rightClick</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>[css](background-color)</t>
   </si>
   <si>
     <t>[attr](style)</t>
   </si>
   <si>
+    <t>[css](border-bottom-color)</t>
+  </si>
+  <si>
+    <t>takescreen</t>
+  </si>
+  <si>
+    <t>select_enrollment</t>
+  </si>
+  <si>
+    <t>select_chronic_log</t>
+  </si>
+  <si>
+    <t>select_ccm_if_visible</t>
+  </si>
+  <si>
+    <t>select_rpm_if_visible</t>
+  </si>
+  <si>
+    <t>select_first_date_of_next_month</t>
+  </si>
+  <si>
+    <t>[log_is_changed]</t>
+  </si>
+  <si>
+    <t>TestCase ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Site URL</t>
+  </si>
+  <si>
+    <t>Remote Hub</t>
+  </si>
+  <si>
+    <t>AnnotationTool</t>
+  </si>
+  <si>
+    <t>annotation tool</t>
+  </si>
+  <si>
+    <t>http://192.168.198.202/annotation-tool/#/user/login</t>
+  </si>
+  <si>
+    <t>ChronicCare_Demographics</t>
+  </si>
+  <si>
+    <t>chronic-care demo</t>
+  </si>
+  <si>
+    <t>http://192.168.198.202/chronic-care/#/login</t>
+  </si>
+  <si>
+    <t>ChronicCare_Enrollment</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>waitOrDelay</t>
+  </si>
+  <si>
+    <t>redirect</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>implict</t>
+  </si>
+  <si>
+    <t>explict</t>
+  </si>
+  <si>
+    <t>retry</t>
+  </si>
+  <si>
+    <t>sleepTime</t>
+  </si>
+  <si>
+    <t>FlowName</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>AnnotationLogin</t>
+  </si>
+  <si>
+    <t>ChooseAnnotaion</t>
+  </si>
+  <si>
+    <t>ImplementAnnotation</t>
+  </si>
+  <si>
+    <t>CCMMemberList</t>
+  </si>
+  <si>
+    <t>CCMChronic</t>
+  </si>
+  <si>
+    <t>CCMEnrollment</t>
+  </si>
+  <si>
+    <t>CCMChronicLog</t>
+  </si>
+  <si>
+    <t>TestGroup ID</t>
+  </si>
+  <si>
+    <t>Target Name</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>TS_01</t>
+  </si>
+  <si>
+    <t>dong</t>
+  </si>
+  <si>
+    <t>10,10,800,300</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>22,28</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>rgba(205, 79, 57, 1)</t>
+  </si>
+  <si>
+    <t>73,79</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>rgba(204, 152, 229,1)</t>
+  </si>
+  <si>
+    <t>114,123</t>
+  </si>
+  <si>
+    <t>25,35</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>rgba(206, 206, 206, 1)</t>
+  </si>
+  <si>
+    <t>InspPalpBreasts</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>takeScreen</t>
   </si>
   <si>
-    <t>select_ccm_if_visible</t>
-  </si>
-  <si>
-    <t>select_rpm_if_visible</t>
-  </si>
-  <si>
-    <t>select_enrollment</t>
-  </si>
-  <si>
-    <t>select_first_date_of_next_month</t>
-  </si>
-  <si>
-    <t>[css](border-bottom-color)</t>
-  </si>
-  <si>
-    <t>TestCase ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>Site URL</t>
-  </si>
-  <si>
-    <t>Remote Hub</t>
-  </si>
-  <si>
-    <t>AnnotationTool</t>
-  </si>
-  <si>
-    <t>annotation tool</t>
-  </si>
-  <si>
-    <t>http://192.168.198.202/annotation-tool/#/user/login</t>
-  </si>
-  <si>
-    <t>ChronicCare</t>
-  </si>
-  <si>
-    <t>chronic-care demo</t>
-  </si>
-  <si>
-    <t>http://192.168.198.202/chronic-care/#/login</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>waitOrDelay</t>
-  </si>
-  <si>
-    <t>redirect</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>implict</t>
-  </si>
-  <si>
-    <t>explict</t>
-  </si>
-  <si>
-    <t>retry</t>
-  </si>
-  <si>
-    <t>sleepTime</t>
-  </si>
-  <si>
-    <t>FlowName</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>AnnotationLogin</t>
-  </si>
-  <si>
-    <t>ChooseAnnotaion</t>
-  </si>
-  <si>
-    <t>ImplementAnnotation</t>
-  </si>
-  <si>
-    <t>CCMMemberList</t>
-  </si>
-  <si>
-    <t>CCMChronic</t>
-  </si>
-  <si>
-    <t>CCMEnrollment</t>
-  </si>
-  <si>
-    <t>TestGroup ID</t>
-  </si>
-  <si>
-    <t>Target Name</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>TS_01</t>
-  </si>
-  <si>
-    <t>dong</t>
-  </si>
-  <si>
-    <t>10,10,800,300</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>22,28</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>rgba(205, 79, 57, 1)</t>
-  </si>
-  <si>
-    <t>73,79</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>rgba(204, 152, 229,1)</t>
-  </si>
-  <si>
-    <t>114,123</t>
-  </si>
-  <si>
-    <t>25,35</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>rgba(206, 206, 206, 1)</t>
-  </si>
-  <si>
-    <t>InspPalpBreasts</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>Jenny@meddataquest.com</t>
   </si>
   <si>
@@ -573,6 +598,9 @@
   </si>
   <si>
     <t>[regex](^[a-zA-Z0-9_.+-]+@[a-zA-Z0-9-]+\\.[a-zA-Z0-9-.]+$)</t>
+  </si>
+  <si>
+    <t>TS_02</t>
   </si>
 </sst>
 </file>
@@ -580,10 +608,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -624,8 +652,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,9 +668,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,6 +679,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -670,10 +706,39 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -686,15 +751,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,40 +766,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -772,7 +800,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,13 +848,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,49 +890,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -862,55 +944,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,31 +968,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,6 +990,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -970,16 +1009,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,16 +1042,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1032,113 +1071,102 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1147,37 +1175,37 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1186,22 +1214,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1538,12 +1566,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1552,11 +1580,11 @@
     <col min="2" max="2" width="13.1238095238095" customWidth="1"/>
     <col min="3" max="3" width="9.87619047619048" customWidth="1"/>
     <col min="4" max="4" width="13.8761904761905" customWidth="1"/>
-    <col min="5" max="11" width="20.8571428571429" customWidth="1"/>
-    <col min="13" max="13" width="10.1238095238095" customWidth="1"/>
+    <col min="5" max="12" width="20.8571428571429" customWidth="1"/>
+    <col min="14" max="14" width="10.1238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:14">
+    <row r="1" s="6" customFormat="1" spans="1:15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1599,146 +1627,161 @@
       <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="b">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
       <c r="N2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="b">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="b">
         <v>0</v>
       </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
       <c r="N3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="L5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1746,13 +1789,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1760,13 +1803,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1774,226 +1817,242 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K18" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28" t="s">
-        <v>98</v>
+        <v>101</v>
+      </c>
+      <c r="K28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2009,7 +2068,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -2022,47 +2081,47 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="E3" s="4">
         <v>40</v>
@@ -2094,7 +2153,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -2106,47 +2165,47 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2169,10 +2228,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2185,295 +2244,295 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E16" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>123</v>
@@ -2481,143 +2540,143 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E27" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>1234567890</v>
@@ -2625,81 +2684,95 @@
     </row>
     <row r="29" ht="12" customHeight="1" spans="1:5">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" ht="12" customHeight="1" spans="1:5">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" ht="12" customHeight="1" spans="1:5">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2707,13 +2780,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C20 C21 C22 C23 C27 C28 C29 C30 C31 C32 C33 C1:C2 C3:C4 C5:C6 C8:C15 C16:C19 C24:C26 C34:C1048576">
       <formula1>PageObjectModel!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
       <formula1>ActionKeyWords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9 A10 A11 A12 A13 A14 A15 A16 A17 A18 A19 A20 A21 A22 A23 A24 A25 A26 A27 A28 A29 A30 A31 A32 A33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2:A34">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -2725,18 +2798,137 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="20.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="13.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="30.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="33.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5">
+      <formula1>PageObjectModel!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+      <formula1>PageObjectModel!$L:$L</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
+      <formula1>ActionKeyWords</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2:A5">
+      <formula1>TestCaseID</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="28.6285714285714" customWidth="1"/>
     <col min="2" max="2" width="38.752380952381" customWidth="1"/>
@@ -2746,56 +2938,73 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2810,6 +3019,7 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://192.168.198.202/annotation-tool/#/user/login" tooltip="http://192.168.198.202/annotation-tool/#/user/login"/>
     <hyperlink ref="D3" r:id="rId2" display="http://192.168.198.202/chronic-care/#/login"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://192.168.198.202/chronic-care/#/login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2825,7 +3035,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2840,34 +3050,34 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2896,7 +3106,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -2911,15 +3121,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="27.5714285714286" customWidth="1"/>
@@ -2927,18 +3137,18 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2949,7 +3159,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -2960,7 +3170,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2971,7 +3181,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -2982,7 +3192,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -2993,7 +3203,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -3004,12 +3214,23 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3037,7 +3258,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -3050,64 +3271,64 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="2">
         <v>12345678</v>
@@ -3115,16 +3336,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3164,104 +3385,104 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3299,390 +3520,390 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E15" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B24" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3708,39 +3929,39 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="21.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="12.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2">
         <v>12345678</v>
@@ -3769,7 +3990,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -3782,64 +4003,64 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="2">
         <v>12345678</v>
@@ -3847,16 +4068,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="27765" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="Acceptable">PageObjectModel!$N$2:$N$4</definedName>
-    <definedName name="ActionKeyWords">PageObjectModel!$B$2:$B$22</definedName>
+    <definedName name="ActionKeyWords">PageObjectModel!$B$2:$B$23</definedName>
     <definedName name="AdditionalOnePage">PageObjectModel!#REF!</definedName>
     <definedName name="AdditionalTwoPage">PageObjectModel!#REF!</definedName>
     <definedName name="Boolean">PageObjectModel!$M$2:$M$3</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="187">
   <si>
     <t>Page</t>
   </si>
@@ -192,6 +192,9 @@
     <t>MembersList</t>
   </si>
   <si>
+    <t>CarePlanProblem</t>
+  </si>
+  <si>
     <t>PrimaryCareId</t>
   </si>
   <si>
@@ -210,6 +213,9 @@
     <t>Selections[3]</t>
   </si>
   <si>
+    <t>LastPageNumberButton</t>
+  </si>
+  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -222,6 +228,9 @@
     <t>AddIcon</t>
   </si>
   <si>
+    <t>LastMemberOfPage</t>
+  </si>
+  <si>
     <t>ActiveOptions[1]</t>
   </si>
   <si>
@@ -309,66 +318,72 @@
     <t>AdvancedDirectivesOptions[3]</t>
   </si>
   <si>
+    <t>clickifenabled</t>
+  </si>
+  <si>
     <t>clickIfVisible</t>
   </si>
   <si>
+    <t>HomePhoneNumberExt</t>
+  </si>
+  <si>
     <t>waitTextToBePresented</t>
   </si>
   <si>
-    <t>HomePhoneNumberExt</t>
+    <t>CellNumber</t>
   </si>
   <si>
     <t>waitForCheck</t>
   </si>
   <si>
-    <t>CellNumber</t>
+    <t>CellNumberExt</t>
   </si>
   <si>
     <t>waitUtilSelected</t>
   </si>
   <si>
-    <t>CellNumberExt</t>
+    <t>HomePhoneNumberPerferred</t>
   </si>
   <si>
     <t>clickAndHold</t>
   </si>
   <si>
-    <t>HomePhoneNumberPerferred</t>
+    <t>CellNumberPerferred</t>
   </si>
   <si>
     <t>drogAndDropRichBox</t>
   </si>
   <si>
-    <t>CellNumberPerferred</t>
+    <t>SubmitButton</t>
   </si>
   <si>
     <t>selectPartialContextByIndex</t>
   </si>
   <si>
-    <t>SubmitButton</t>
+    <t>ErrorMessage</t>
   </si>
   <si>
     <t>sendKey</t>
   </si>
   <si>
-    <t>ErrorMessage</t>
+    <t>ErrorMessage[1]</t>
   </si>
   <si>
     <t>sendKeyByRobot</t>
   </si>
   <si>
-    <t>ErrorMessage[1]</t>
+    <t>ErrorMessage[2]</t>
   </si>
   <si>
     <t>rightClick</t>
   </si>
   <si>
-    <t>ErrorMessage[2]</t>
-  </si>
-  <si>
     <t>[css](background-color)</t>
   </si>
   <si>
+    <t>ConsentValue</t>
+  </si>
+  <si>
     <t>[attr](style)</t>
   </si>
   <si>
@@ -381,6 +396,9 @@
     <t>select_enrollment</t>
   </si>
   <si>
+    <t>select_care_plan</t>
+  </si>
+  <si>
     <t>select_chronic_log</t>
   </si>
   <si>
@@ -558,6 +576,12 @@
     <t>selectMemberByMID</t>
   </si>
   <si>
+    <t>TS_02</t>
+  </si>
+  <si>
+    <t>No Data</t>
+  </si>
+  <si>
     <t>hz 910</t>
   </si>
   <si>
@@ -598,9 +622,6 @@
   </si>
   <si>
     <t>[regex](^[a-zA-Z0-9_.+-]+@[a-zA-Z0-9-]+\\.[a-zA-Z0-9-.]+$)</t>
-  </si>
-  <si>
-    <t>TS_02</t>
   </si>
 </sst>
 </file>
@@ -1566,12 +1587,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1748,20 +1769,23 @@
       <c r="I4" t="s">
         <v>42</v>
       </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1769,19 +1793,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>50</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1789,13 +1816,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1803,13 +1833,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1817,13 +1847,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1831,228 +1861,241 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="K29" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>110</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2065,15 +2108,15 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="30.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="23.4285714285714" customWidth="1"/>
     <col min="4" max="4" width="25.2857142857143" customWidth="1"/>
     <col min="5" max="5" width="9.57142857142857"/>
@@ -2081,27 +2124,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2112,30 +2155,59 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E3" s="4">
         <v>40</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:5">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C1:C2 C4:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C1:C2 C6:C1048576">
       <formula1>PageObjectModel!$I:$I</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D4 D5">
       <formula1>ActionKeyWords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -2150,73 +2222,118 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="33.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="23.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="21.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2 D3:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+      <formula1>PageObjectModel!$J:$J</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D1:D2 D6:D1048576">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C1:C2 C4:C1048576">
-      <formula1>PageObjectModel!$J:$J</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -2228,10 +2345,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2244,27 +2361,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -2275,44 +2392,44 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -2320,13 +2437,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -2334,30 +2451,30 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -2365,13 +2482,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -2379,47 +2496,47 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -2427,30 +2544,30 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -2458,78 +2575,78 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -2540,92 +2657,92 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -2633,47 +2750,47 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -2684,64 +2801,64 @@
     </row>
     <row r="29" ht="12" customHeight="1" spans="1:5">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" ht="12" customHeight="1" spans="1:5">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" ht="12" customHeight="1" spans="1:5">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
         <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -2749,30 +2866,61 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
       </c>
       <c r="D34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" t="s">
         <v>106</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2780,13 +2928,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C20 C21 C22 C23 C27 C28 C29 C30 C31 C32 C33 C1:C2 C3:C4 C5:C6 C8:C15 C16:C19 C24:C26 C34:C1048576">
       <formula1>PageObjectModel!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
       <formula1>ActionKeyWords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2:A34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A35 A36 A2:A34">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -2804,7 +2952,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -2817,27 +2965,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -2848,16 +2996,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -2865,16 +3013,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -2882,16 +3030,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -2925,7 +3073,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -2938,36 +3086,36 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -2975,16 +3123,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -2992,16 +3140,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -3050,34 +3198,34 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3137,18 +3285,18 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3159,7 +3307,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3170,7 +3318,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3192,7 +3340,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -3203,7 +3351,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -3214,7 +3362,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -3225,7 +3373,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -3271,41 +3419,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -3314,15 +3462,15 @@
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -3336,10 +3484,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -3385,27 +3533,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -3417,10 +3565,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -3431,27 +3579,27 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -3459,24 +3607,24 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -3520,198 +3668,198 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -3719,98 +3867,98 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B17" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -3818,13 +3966,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -3832,13 +3980,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -3846,13 +3994,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -3860,50 +4008,50 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3926,25 +4074,25 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="21.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="25.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="12.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -3955,21 +4103,35 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2">
         <v>12345678</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12345678</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3">
       <formula1>TestCaseID</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 C1:XFD1">
@@ -3978,6 +4140,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Jenny@meddataquest.com" tooltip="mailto:Jenny@meddataquest.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="Jenny@meddataquest.com" tooltip="mailto:Jenny@meddataquest.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3990,12 +4153,12 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="28.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="17.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="20.2857142857143" customWidth="1"/>
     <col min="4" max="4" width="26.2857142857143" customWidth="1"/>
@@ -4003,41 +4166,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -4046,15 +4209,15 @@
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -4068,10 +4231,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" activeTab="1"/>
+    <workbookView windowWidth="27765" windowHeight="12510"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="193">
   <si>
     <t>Page</t>
   </si>
@@ -195,210 +195,225 @@
     <t>CarePlanProblem</t>
   </si>
   <si>
+    <t>EnrollmentButton</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>blur</t>
+  </si>
+  <si>
+    <t>TestTask</t>
+  </si>
+  <si>
+    <t>Selections[3]</t>
+  </si>
+  <si>
+    <t>LastPageNumberButton</t>
+  </si>
+  <si>
     <t>PrimaryCareId</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>blur</t>
-  </si>
-  <si>
-    <t>TestTask</t>
-  </si>
-  <si>
-    <t>Selections[3]</t>
-  </si>
-  <si>
-    <t>LastPageNumberButton</t>
+    <t>HomePhoneNumber</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>AddIcon</t>
+  </si>
+  <si>
+    <t>LastMemberOfPage</t>
   </si>
   <si>
     <t>Gender</t>
   </si>
   <si>
-    <t>HomePhoneNumber</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>AddIcon</t>
-  </si>
-  <si>
-    <t>LastMemberOfPage</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>Dropdowns[1]</t>
   </si>
   <si>
     <t>ActiveOptions[1]</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>Dropdowns[1]</t>
+    <t>doubleClick</t>
+  </si>
+  <si>
+    <t>Dropdowns[2]</t>
   </si>
   <si>
     <t>ActiveOptions[2]</t>
   </si>
   <si>
-    <t>doubleClick</t>
-  </si>
-  <si>
-    <t>Dropdowns[2]</t>
+    <t>hover</t>
+  </si>
+  <si>
+    <t>Dropdowns[3]</t>
   </si>
   <si>
     <t>ActiveOptions[3]</t>
   </si>
   <si>
-    <t>hover</t>
-  </si>
-  <si>
-    <t>Dropdowns[3]</t>
+    <t>waitForVisible</t>
   </si>
   <si>
     <t>BirthDate</t>
   </si>
   <si>
-    <t>waitForVisible</t>
+    <t>waitForClickable</t>
   </si>
   <si>
     <t>Organization</t>
   </si>
   <si>
-    <t>waitForClickable</t>
+    <t>waitForHidden</t>
   </si>
   <si>
     <t>Facility</t>
   </si>
   <si>
-    <t>waitForHidden</t>
+    <t>waitSpecificTime</t>
+  </si>
+  <si>
+    <t>SelectedOptions[1]</t>
   </si>
   <si>
     <t>City</t>
   </si>
   <si>
-    <t>waitSpecificTime</t>
-  </si>
-  <si>
-    <t>SelectedOptions[1]</t>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>SelectedOptions[2]</t>
   </si>
   <si>
     <t>CityInput</t>
   </si>
   <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>SelectedOptions[2]</t>
+    <t>[value]</t>
+  </si>
+  <si>
+    <t>SelectedOptions[3]</t>
   </si>
   <si>
     <t>State</t>
   </si>
   <si>
-    <t>[value]</t>
-  </si>
-  <si>
-    <t>SelectedOptions[3]</t>
+    <t>[text]</t>
   </si>
   <si>
     <t>AdvancedDirectivesOptions[1]</t>
   </si>
   <si>
-    <t>[text]</t>
+    <t>[class]</t>
   </si>
   <si>
     <t>AdvancedDirectivesOptions[2]</t>
   </si>
   <si>
-    <t>[class]</t>
+    <t>clickifenabled</t>
   </si>
   <si>
     <t>AdvancedDirectivesOptions[3]</t>
   </si>
   <si>
-    <t>clickifenabled</t>
-  </si>
-  <si>
     <t>clickIfVisible</t>
   </si>
   <si>
+    <t>waitTextToBePresented</t>
+  </si>
+  <si>
     <t>HomePhoneNumberExt</t>
   </si>
   <si>
-    <t>waitTextToBePresented</t>
+    <t>waitForCheck</t>
   </si>
   <si>
     <t>CellNumber</t>
   </si>
   <si>
-    <t>waitForCheck</t>
+    <t>waitUtilSelected</t>
   </si>
   <si>
     <t>CellNumberExt</t>
   </si>
   <si>
-    <t>waitUtilSelected</t>
+    <t>clickAndHold</t>
   </si>
   <si>
     <t>HomePhoneNumberPerferred</t>
   </si>
   <si>
-    <t>clickAndHold</t>
+    <t>drogAndDropRichBox</t>
   </si>
   <si>
     <t>CellNumberPerferred</t>
   </si>
   <si>
-    <t>drogAndDropRichBox</t>
+    <t>selectPartialContextByIndex</t>
   </si>
   <si>
     <t>SubmitButton</t>
   </si>
   <si>
-    <t>selectPartialContextByIndex</t>
+    <t>sendKey</t>
   </si>
   <si>
     <t>ErrorMessage</t>
   </si>
   <si>
-    <t>sendKey</t>
+    <t>sendKeyByRobot</t>
   </si>
   <si>
     <t>ErrorMessage[1]</t>
   </si>
   <si>
-    <t>sendKeyByRobot</t>
+    <t>rightClick</t>
   </si>
   <si>
     <t>ErrorMessage[2]</t>
   </si>
   <si>
-    <t>rightClick</t>
-  </si>
-  <si>
     <t>[css](background-color)</t>
   </si>
   <si>
+    <t>[attr](style)</t>
+  </si>
+  <si>
     <t>ConsentValue</t>
   </si>
   <si>
-    <t>[attr](style)</t>
-  </si>
-  <si>
     <t>[css](border-bottom-color)</t>
   </si>
   <si>
+    <t>Consent</t>
+  </si>
+  <si>
     <t>takescreen</t>
   </si>
   <si>
+    <t>MemberStatus</t>
+  </si>
+  <si>
     <t>select_enrollment</t>
   </si>
   <si>
+    <t>EnrollmentDate</t>
+  </si>
+  <si>
     <t>select_care_plan</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>select_chronic_log</t>
   </si>
   <si>
@@ -622,6 +637,9 @@
   </si>
   <si>
     <t>[regex](^[a-zA-Z0-9_.+-]+@[a-zA-Z0-9-]+\\.[a-zA-Z0-9-.]+$)</t>
+  </si>
+  <si>
+    <t>TS_03</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1272,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1268,6 +1286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1589,10 +1608,10 @@
   <sheetPr/>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1772,7 +1791,7 @@
       <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="L4" t="s">
@@ -1875,7 +1894,7 @@
         <v>66</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
         <v>67</v>
@@ -1886,7 +1905,7 @@
         <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K11" t="s">
         <v>69</v>
@@ -1897,7 +1916,7 @@
         <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K12" t="s">
         <v>71</v>
@@ -1957,15 +1976,15 @@
         <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -2037,65 +2056,80 @@
         <v>104</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
       <c r="B30" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
+      <c r="K30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
+        <v>109</v>
+      </c>
+      <c r="K31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
       <c r="B32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
+        <v>111</v>
+      </c>
+      <c r="K32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
       <c r="B33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
+        <v>113</v>
+      </c>
+      <c r="K33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
       <c r="B34" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="K34" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2124,27 +2158,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2155,16 +2189,16 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E3" s="4">
         <v>40</v>
@@ -2172,10 +2206,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -2186,10 +2220,10 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>55</v>
@@ -2222,13 +2256,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="33.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="23.1428571428571" customWidth="1"/>
@@ -2237,83 +2271,83 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -2322,7 +2356,21 @@
         <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2381,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D1:D2 D6:D1048576">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -2345,10 +2393,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2361,27 +2409,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -2392,44 +2440,44 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -2437,13 +2485,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -2451,30 +2499,30 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -2482,13 +2530,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -2496,47 +2544,47 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
         <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
         <v>81</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -2544,30 +2592,30 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -2575,47 +2623,47 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
         <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D17" t="s">
         <v>53</v>
@@ -2623,10 +2671,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -2635,18 +2683,18 @@
         <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -2657,64 +2705,64 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D21" t="s">
         <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
         <v>75</v>
@@ -2722,13 +2770,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D24" t="s">
         <v>53</v>
@@ -2736,13 +2784,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -2750,47 +2798,47 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
         <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -2801,10 +2849,10 @@
     </row>
     <row r="29" ht="12" customHeight="1" spans="1:5">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
@@ -2813,32 +2861,32 @@
         <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" ht="12" customHeight="1" spans="1:5">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
         <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" ht="12" customHeight="1" spans="1:5">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
@@ -2847,18 +2895,18 @@
         <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B32" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -2866,41 +2914,41 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B33" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" t="s">
         <v>81</v>
@@ -2911,16 +2959,30 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2928,13 +2990,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C20 C21 C22 C23 C27 C28 C29 C30 C31 C32 C33 C1:C2 C3:C4 C5:C6 C8:C15 C16:C19 C24:C26 C34:C1048576">
       <formula1>PageObjectModel!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
       <formula1>ActionKeyWords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A35 A36 A2:A34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A35 A36 A37 A2:A34">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -2965,27 +3027,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -2996,16 +3058,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -3013,16 +3075,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3030,16 +3092,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3070,7 +3132,7 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
@@ -3086,36 +3148,36 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -3123,16 +3185,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -3140,16 +3202,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -3198,34 +3260,34 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3285,18 +3347,18 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3307,7 +3369,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3318,7 +3380,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3340,7 +3402,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -3351,7 +3413,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -3362,7 +3424,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -3373,7 +3435,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -3419,27 +3481,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3450,10 +3512,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -3462,15 +3524,15 @@
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -3484,10 +3546,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -3533,27 +3595,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -3565,10 +3627,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -3579,10 +3641,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -3593,10 +3655,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -3607,10 +3669,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -3621,10 +3683,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -3668,27 +3730,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -3700,10 +3762,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -3712,15 +3774,15 @@
         <v>96</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -3729,15 +3791,15 @@
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -3746,15 +3808,15 @@
         <v>98</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -3763,32 +3825,32 @@
         <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -3797,15 +3859,15 @@
         <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -3814,32 +3876,32 @@
         <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -3848,15 +3910,15 @@
         <v>98</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C12" t="s">
         <v>54</v>
@@ -3867,44 +3929,44 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -3913,15 +3975,15 @@
         <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -3930,32 +3992,32 @@
         <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -3966,13 +4028,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -3980,10 +4042,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -3994,13 +4056,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -4008,10 +4070,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B22" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C22" t="s">
         <v>73</v>
@@ -4020,15 +4082,15 @@
         <v>81</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
         <v>76</v>
@@ -4037,21 +4099,21 @@
         <v>81</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4089,10 +4151,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -4103,13 +4165,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2">
         <v>12345678</v>
@@ -4117,13 +4179,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2">
         <v>12345678</v>
@@ -4166,27 +4228,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -4197,10 +4259,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -4209,15 +4271,15 @@
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -4231,10 +4293,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510"/>
+    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="193">
   <si>
     <t>Page</t>
   </si>
@@ -1608,7 +1608,7 @@
   <sheetPr/>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
@@ -2393,10 +2393,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2985,18 +2985,74 @@
         <v>15</v>
       </c>
     </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:4">
+      <c r="A39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C20 C21 C22 C23 C27 C28 C29 C30 C31 C32 C33 C1:C2 C3:C4 C5:C6 C8:C15 C16:C19 C24:C26 C34:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C20 C21 C22 C23 C27 C28 C29 C30 C31 C32 C33 C38 C39 C40 C1:C2 C3:C4 C5:C6 C8:C15 C16:C19 C24:C26 C34:C37 C41:C1048576">
       <formula1>PageObjectModel!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
       <formula1>ActionKeyWords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A35 A36 A37 A2:A34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A35 A36 A37 A38 A39 A40 A41 A2:A34">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -3014,7 +3070,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -3135,7 +3191,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3191,7 +3247,7 @@
         <v>131</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>132</v>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="7" activeTab="11"/>
+    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="Acceptable">PageObjectModel!$N$2:$N$4</definedName>
-    <definedName name="ActionKeyWords">PageObjectModel!$B$2:$B$23</definedName>
+    <definedName name="ActionKeyWords">PageObjectModel!$B$2:$B$25</definedName>
     <definedName name="AdditionalOnePage">PageObjectModel!#REF!</definedName>
     <definedName name="AdditionalTwoPage">PageObjectModel!#REF!</definedName>
     <definedName name="Boolean">PageObjectModel!$M$2:$M$3</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="199">
   <si>
     <t>Page</t>
   </si>
@@ -216,6 +216,9 @@
     <t>LastPageNumberButton</t>
   </si>
   <si>
+    <t>CarePlanButton</t>
+  </si>
+  <si>
     <t>PrimaryCareId</t>
   </si>
   <si>
@@ -231,6 +234,9 @@
     <t>LastMemberOfPage</t>
   </si>
   <si>
+    <t>ProblemList</t>
+  </si>
+  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -318,102 +324,108 @@
     <t>AdvancedDirectivesOptions[2]</t>
   </si>
   <si>
+    <t>[visible]</t>
+  </si>
+  <si>
+    <t>AdvancedDirectivesOptions[3]</t>
+  </si>
+  <si>
+    <t>[size]</t>
+  </si>
+  <si>
     <t>clickifenabled</t>
   </si>
   <si>
-    <t>AdvancedDirectivesOptions[3]</t>
+    <t>HomePhoneNumberExt</t>
   </si>
   <si>
     <t>clickIfVisible</t>
   </si>
   <si>
+    <t>CellNumber</t>
+  </si>
+  <si>
     <t>waitTextToBePresented</t>
   </si>
   <si>
-    <t>HomePhoneNumberExt</t>
+    <t>CellNumberExt</t>
   </si>
   <si>
     <t>waitForCheck</t>
   </si>
   <si>
-    <t>CellNumber</t>
+    <t>HomePhoneNumberPerferred</t>
   </si>
   <si>
     <t>waitUtilSelected</t>
   </si>
   <si>
-    <t>CellNumberExt</t>
+    <t>CellNumberPerferred</t>
   </si>
   <si>
     <t>clickAndHold</t>
   </si>
   <si>
-    <t>HomePhoneNumberPerferred</t>
+    <t>SubmitButton</t>
   </si>
   <si>
     <t>drogAndDropRichBox</t>
   </si>
   <si>
-    <t>CellNumberPerferred</t>
+    <t>ErrorMessage</t>
   </si>
   <si>
     <t>selectPartialContextByIndex</t>
   </si>
   <si>
-    <t>SubmitButton</t>
+    <t>ErrorMessage[1]</t>
   </si>
   <si>
     <t>sendKey</t>
   </si>
   <si>
-    <t>ErrorMessage</t>
+    <t>ErrorMessage[2]</t>
   </si>
   <si>
     <t>sendKeyByRobot</t>
   </si>
   <si>
-    <t>ErrorMessage[1]</t>
-  </si>
-  <si>
     <t>rightClick</t>
   </si>
   <si>
-    <t>ErrorMessage[2]</t>
+    <t>ConsentValue</t>
   </si>
   <si>
     <t>[css](background-color)</t>
   </si>
   <si>
+    <t>Consent</t>
+  </si>
+  <si>
     <t>[attr](style)</t>
   </si>
   <si>
-    <t>ConsentValue</t>
+    <t>MemberStatus</t>
   </si>
   <si>
     <t>[css](border-bottom-color)</t>
   </si>
   <si>
-    <t>Consent</t>
+    <t>EnrollmentDate</t>
   </si>
   <si>
     <t>takescreen</t>
   </si>
   <si>
-    <t>MemberStatus</t>
+    <t>Note</t>
   </si>
   <si>
     <t>select_enrollment</t>
   </si>
   <si>
-    <t>EnrollmentDate</t>
-  </si>
-  <si>
     <t>select_care_plan</t>
   </si>
   <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>select_chronic_log</t>
   </si>
   <si>
@@ -595,6 +607,12 @@
   </si>
   <si>
     <t>No Data</t>
+  </si>
+  <si>
+    <t>TS_04</t>
+  </si>
+  <si>
+    <t>Create Care Plan</t>
   </si>
   <si>
     <t>hz 910</t>
@@ -1606,12 +1624,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1823,11 +1841,14 @@
       <c r="I5" t="s">
         <v>50</v>
       </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1835,16 +1856,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1852,13 +1876,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1866,13 +1890,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1880,188 +1904,188 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K23" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
@@ -2069,67 +2093,77 @@
     </row>
     <row r="30" spans="2:11">
       <c r="B30" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K34" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2145,7 +2179,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -2158,27 +2192,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2189,16 +2223,16 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E3" s="4">
         <v>40</v>
@@ -2206,10 +2240,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -2220,13 +2254,13 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -2256,13 +2290,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="33.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="23.1428571428571" customWidth="1"/>
@@ -2271,117 +2305,154 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
       <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>87</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C1:C3 C4:C7 C9:C1048576">
       <formula1>PageObjectModel!$J:$J</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D1:D2 D6:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D8 D1:D2 D5:D7 D9:D1048576">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A2 A3 A4 A5 A6 A7 A8 A9">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -2393,10 +2464,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2409,27 +2480,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -2440,44 +2511,44 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -2485,13 +2556,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -2499,30 +2570,30 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
@@ -2530,13 +2601,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -2544,47 +2615,47 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
         <v>37</v>
@@ -2592,30 +2663,30 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
         <v>15</v>
@@ -2623,78 +2694,78 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -2705,92 +2776,92 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -2798,47 +2869,47 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
         <v>27</v>
@@ -2849,10 +2920,10 @@
     </row>
     <row r="29" ht="12" customHeight="1" spans="1:5">
       <c r="A29" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
@@ -2861,32 +2932,32 @@
         <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" ht="12" customHeight="1" spans="1:5">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" ht="12" customHeight="1" spans="1:5">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
@@ -2895,18 +2966,18 @@
         <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -2914,44 +2985,44 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
@@ -2959,24 +3030,24 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -2987,13 +3058,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -3001,13 +3072,13 @@
     </row>
     <row r="39" customFormat="1" spans="1:4">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -3015,44 +3086,58 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="42" customFormat="1" spans="1:4">
+      <c r="A42" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C20 C21 C22 C23 C27 C28 C29 C30 C31 C32 C33 C38 C39 C40 C1:C2 C3:C4 C5:C6 C8:C15 C16:C19 C24:C26 C34:C37 C41:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C20 C21 C22 C23 C27 C28 C29 C30 C31 C32 C33 C38 C39 C40 C41 C42 C1:C2 C3:C4 C5:C6 C8:C15 C16:C19 C24:C26 C34:C37 C43:C1048576">
       <formula1>PageObjectModel!$K:$K</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42">
       <formula1>PageObjectModel!$B:$B</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2">
       <formula1>ActionKeyWords</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A35 A36 A37 A38 A39 A40 A41 A2:A34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A35 A36 A37 A38 A39 A40 A41 A42 A2:A34">
       <formula1>TestCaseID</formula1>
     </dataValidation>
   </dataValidations>
@@ -3070,7 +3155,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D10" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -3083,27 +3168,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -3114,16 +3199,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -3131,16 +3216,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3148,16 +3233,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3204,36 +3289,36 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -3241,16 +3326,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
@@ -3258,16 +3343,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
         <v>16</v>
@@ -3316,34 +3401,34 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3403,18 +3488,18 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3425,7 +3510,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3436,7 +3521,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3458,7 +3543,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -3469,7 +3554,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -3480,7 +3565,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -3491,7 +3576,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -3537,41 +3622,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -3580,15 +3665,15 @@
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -3602,10 +3687,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -3651,27 +3736,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -3683,10 +3768,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -3697,24 +3782,24 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -3725,24 +3810,24 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -3786,198 +3871,198 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -3985,98 +4070,98 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
         <v>15</v>
@@ -4084,13 +4169,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
         <v>15</v>
@@ -4098,13 +4183,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
@@ -4112,13 +4197,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
         <v>15</v>
@@ -4126,50 +4211,50 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4207,10 +4292,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -4221,13 +4306,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D2" s="2">
         <v>12345678</v>
@@ -4235,13 +4320,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D3" s="2">
         <v>12345678</v>
@@ -4284,41 +4369,41 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -4327,15 +4412,15 @@
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -4349,10 +4434,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="7" activeTab="10"/>
+    <workbookView windowWidth="27765" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -709,6 +709,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -726,14 +786,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,86 +822,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -857,7 +857,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,13 +899,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +929,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,55 +1013,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,61 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,68 +1047,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,151 +1083,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2292,8 +2292,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
         <v>180</v>
@@ -2467,7 +2467,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
         <v>161</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
         <v>161</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
         <v>198</v>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="39" customFormat="1" spans="1:4">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
         <v>198</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
         <v>198</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B41" t="s">
         <v>198</v>
@@ -3273,10 +3273,10 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3332,7 +3332,7 @@
         <v>135</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>136</v>
@@ -3349,7 +3349,7 @@
         <v>135</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>136</v>
@@ -3386,7 +3386,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -3457,7 +3457,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>5</v>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -665,10 +665,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -703,21 +703,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,16 +733,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -755,7 +757,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,16 +793,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,30 +824,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,13 +851,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +887,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,7 +911,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,13 +941,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,19 +1007,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,31 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,67 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,21 +1049,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1080,21 +1089,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1119,150 +1113,156 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,22 +1271,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3276,7 +3276,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3338,7 +3338,7 @@
         <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" activeTab="1"/>
+    <workbookView windowWidth="20820" windowHeight="2715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="200">
   <si>
     <t>Page</t>
   </si>
@@ -472,6 +472,9 @@
   </si>
   <si>
     <t>http://192.168.198.202/chronic-care/#/login</t>
+  </si>
+  <si>
+    <t>http://192.168.198.175:4444/wd/hub/</t>
   </si>
   <si>
     <t>ChronicCare_Enrollment</t>
@@ -665,10 +668,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -703,7 +706,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,23 +736,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,37 +796,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,23 +818,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,25 +854,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,25 +866,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +926,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,13 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,7 +950,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,79 +1022,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,6 +1045,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1064,21 +1076,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1089,6 +1086,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,11 +1116,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,170 +1145,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1298,6 +1301,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1652,7 +1656,7 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -1699,7 +1703,7 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
@@ -1746,7 +1750,7 @@
       <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="9"/>
       <c r="E3" t="s">
         <v>29</v>
       </c>
@@ -1809,7 +1813,7 @@
       <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>44</v>
       </c>
       <c r="L4" t="s">
@@ -2195,16 +2199,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2212,7 +2216,7 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2226,13 +2230,13 @@
         <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E3" s="4">
         <v>40</v>
@@ -2240,10 +2244,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -2254,10 +2258,10 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -2308,16 +2312,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2325,7 +2329,7 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -2339,7 +2343,7 @@
         <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -2350,10 +2354,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -2364,10 +2368,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -2376,15 +2380,15 @@
         <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -2395,10 +2399,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C7" t="s">
         <v>51</v>
@@ -2412,10 +2416,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
@@ -2424,15 +2428,15 @@
         <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
@@ -2483,16 +2487,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2500,7 +2504,7 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -2514,7 +2518,7 @@
         <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
@@ -2523,7 +2527,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2531,7 +2535,7 @@
         <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -2545,7 +2549,7 @@
         <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -2559,7 +2563,7 @@
         <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
@@ -2573,7 +2577,7 @@
         <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
@@ -2582,7 +2586,7 @@
         <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2590,7 +2594,7 @@
         <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
@@ -2604,7 +2608,7 @@
         <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>64</v>
@@ -2618,7 +2622,7 @@
         <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
@@ -2627,7 +2631,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2635,7 +2639,7 @@
         <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
         <v>73</v>
@@ -2644,7 +2648,7 @@
         <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2652,7 +2656,7 @@
         <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
@@ -2666,7 +2670,7 @@
         <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -2675,7 +2679,7 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2683,7 +2687,7 @@
         <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
@@ -2697,7 +2701,7 @@
         <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
@@ -2706,7 +2710,7 @@
         <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2714,7 +2718,7 @@
         <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
@@ -2723,7 +2727,7 @@
         <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2731,7 +2735,7 @@
         <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
         <v>84</v>
@@ -2745,7 +2749,7 @@
         <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
@@ -2754,7 +2758,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2762,7 +2766,7 @@
         <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
@@ -2779,7 +2783,7 @@
         <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
         <v>91</v>
@@ -2788,7 +2792,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2796,7 +2800,7 @@
         <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
         <v>105</v>
@@ -2805,7 +2809,7 @@
         <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2813,7 +2817,7 @@
         <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
         <v>91</v>
@@ -2822,7 +2826,7 @@
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2830,7 +2834,7 @@
         <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
         <v>93</v>
@@ -2844,7 +2848,7 @@
         <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
         <v>99</v>
@@ -2858,7 +2862,7 @@
         <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C25" t="s">
         <v>101</v>
@@ -2872,7 +2876,7 @@
         <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
         <v>93</v>
@@ -2881,7 +2885,7 @@
         <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2889,7 +2893,7 @@
         <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C27" t="s">
         <v>105</v>
@@ -2898,7 +2902,7 @@
         <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2906,7 +2910,7 @@
         <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
         <v>93</v>
@@ -2923,7 +2927,7 @@
         <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
@@ -2932,7 +2936,7 @@
         <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" ht="12" customHeight="1" spans="1:5">
@@ -2940,7 +2944,7 @@
         <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C30" t="s">
         <v>105</v>
@@ -2949,7 +2953,7 @@
         <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" ht="12" customHeight="1" spans="1:5">
@@ -2957,7 +2961,7 @@
         <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
@@ -2966,7 +2970,7 @@
         <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2974,7 +2978,7 @@
         <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
         <v>101</v>
@@ -2988,13 +2992,13 @@
         <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
         <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3002,7 +3006,7 @@
         <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -3013,10 +3017,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
         <v>110</v>
@@ -3030,10 +3034,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
@@ -3044,10 +3048,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -3058,10 +3062,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
         <v>112</v>
@@ -3072,10 +3076,10 @@
     </row>
     <row r="39" customFormat="1" spans="1:4">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C39" t="s">
         <v>61</v>
@@ -3086,10 +3090,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
         <v>116</v>
@@ -3100,10 +3104,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C41" t="s">
         <v>101</v>
@@ -3114,10 +3118,10 @@
     </row>
     <row r="42" customFormat="1" spans="1:4">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C42" t="s">
         <v>23</v>
@@ -3171,16 +3175,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3188,7 +3192,7 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -3202,7 +3206,7 @@
         <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -3219,7 +3223,7 @@
         <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
@@ -3236,7 +3240,7 @@
         <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -3276,7 +3280,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3324,7 +3328,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -3340,10 +3344,13 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
         <v>135</v>
@@ -3371,6 +3378,7 @@
     <hyperlink ref="D2" r:id="rId1" display="http://192.168.198.202/annotation-tool/#/user/login" tooltip="http://192.168.198.202/annotation-tool/#/user/login"/>
     <hyperlink ref="D3" r:id="rId2" display="http://192.168.198.202/chronic-care/#/login"/>
     <hyperlink ref="D4" r:id="rId2" display="http://192.168.198.202/chronic-care/#/login"/>
+    <hyperlink ref="F3" r:id="rId3" display="http://192.168.198.175:4444/wd/hub/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3401,34 +3409,34 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3488,18 +3496,18 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3510,7 +3518,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3521,7 +3529,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3543,7 +3551,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -3554,7 +3562,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -3565,7 +3573,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -3576,7 +3584,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -3625,16 +3633,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3642,7 +3650,7 @@
         <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3656,7 +3664,7 @@
         <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -3665,7 +3673,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3673,7 +3681,7 @@
         <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -3690,7 +3698,7 @@
         <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -3739,16 +3747,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3756,7 +3764,7 @@
         <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -3771,7 +3779,7 @@
         <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -3785,7 +3793,7 @@
         <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -3799,7 +3807,7 @@
         <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -3813,7 +3821,7 @@
         <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -3827,7 +3835,7 @@
         <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -3874,16 +3882,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3891,7 +3899,7 @@
         <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -3906,7 +3914,7 @@
         <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -3915,7 +3923,7 @@
         <v>102</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3923,7 +3931,7 @@
         <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -3932,7 +3940,7 @@
         <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3940,7 +3948,7 @@
         <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -3949,7 +3957,7 @@
         <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3957,7 +3965,7 @@
         <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -3966,7 +3974,7 @@
         <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3974,7 +3982,7 @@
         <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -3983,7 +3991,7 @@
         <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3991,7 +3999,7 @@
         <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -4000,7 +4008,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4008,7 +4016,7 @@
         <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -4017,7 +4025,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4025,7 +4033,7 @@
         <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
@@ -4034,7 +4042,7 @@
         <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4042,7 +4050,7 @@
         <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -4051,7 +4059,7 @@
         <v>104</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4059,7 +4067,7 @@
         <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -4073,7 +4081,7 @@
         <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -4082,7 +4090,7 @@
         <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4090,7 +4098,7 @@
         <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
@@ -4099,7 +4107,7 @@
         <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4107,7 +4115,7 @@
         <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -4116,7 +4124,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4124,7 +4132,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -4133,7 +4141,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4141,7 +4149,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -4150,7 +4158,7 @@
         <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4158,7 +4166,7 @@
         <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
         <v>66</v>
@@ -4172,7 +4180,7 @@
         <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C19" t="s">
         <v>64</v>
@@ -4186,7 +4194,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -4200,7 +4208,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C21" t="s">
         <v>64</v>
@@ -4214,7 +4222,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
         <v>75</v>
@@ -4223,7 +4231,7 @@
         <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4231,7 +4239,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
         <v>78</v>
@@ -4240,7 +4248,7 @@
         <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4248,13 +4256,13 @@
         <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -4295,7 +4303,7 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -4309,10 +4317,10 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D2" s="2">
         <v>12345678</v>
@@ -4320,13 +4328,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D3" s="2">
         <v>12345678</v>
@@ -4372,16 +4380,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4389,7 +4397,7 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -4403,7 +4411,7 @@
         <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -4412,7 +4420,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4420,7 +4428,7 @@
         <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -4437,7 +4445,7 @@
         <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20820" windowHeight="2715" activeTab="1"/>
+    <workbookView windowWidth="27765" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="199">
   <si>
     <t>Page</t>
   </si>
@@ -472,9 +472,6 @@
   </si>
   <si>
     <t>http://192.168.198.202/chronic-care/#/login</t>
-  </si>
-  <si>
-    <t>http://192.168.198.175:4444/wd/hub/</t>
   </si>
   <si>
     <t>ChronicCare_Enrollment</t>
@@ -669,9 +666,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -706,22 +703,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,7 +725,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -744,23 +733,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -774,7 +749,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -789,14 +786,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,16 +823,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,7 +851,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,37 +929,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,43 +965,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,55 +977,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,19 +1007,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,48 +1042,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1107,11 +1062,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,97 +1107,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1244,28 +1241,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1274,26 +1271,26 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1301,7 +1298,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1656,7 +1652,7 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -1703,7 +1699,7 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
@@ -1750,7 +1746,7 @@
       <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="8"/>
       <c r="E3" t="s">
         <v>29</v>
       </c>
@@ -1813,7 +1809,7 @@
       <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="L4" t="s">
@@ -2199,16 +2195,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2216,7 +2212,7 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -2230,13 +2226,13 @@
         <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E3" s="4">
         <v>40</v>
@@ -2244,10 +2240,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>
@@ -2258,10 +2254,10 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -2312,16 +2308,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2329,7 +2325,7 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -2343,7 +2339,7 @@
         <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
@@ -2354,10 +2350,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
@@ -2368,10 +2364,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -2380,15 +2376,15 @@
         <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -2399,10 +2395,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" t="s">
         <v>51</v>
@@ -2416,10 +2412,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
@@ -2428,15 +2424,15 @@
         <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
@@ -2487,16 +2483,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2504,7 +2500,7 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
@@ -2518,7 +2514,7 @@
         <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
@@ -2527,7 +2523,7 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2535,7 +2531,7 @@
         <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -2549,7 +2545,7 @@
         <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -2563,7 +2559,7 @@
         <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>61</v>
@@ -2577,7 +2573,7 @@
         <v>134</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
@@ -2586,7 +2582,7 @@
         <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2594,7 +2590,7 @@
         <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>71</v>
@@ -2608,7 +2604,7 @@
         <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>64</v>
@@ -2622,7 +2618,7 @@
         <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
@@ -2631,7 +2627,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2639,7 +2635,7 @@
         <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
         <v>73</v>
@@ -2648,7 +2644,7 @@
         <v>83</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2656,7 +2652,7 @@
         <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
@@ -2670,7 +2666,7 @@
         <v>134</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
@@ -2679,7 +2675,7 @@
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2687,7 +2683,7 @@
         <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
         <v>61</v>
@@ -2701,7 +2697,7 @@
         <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
@@ -2710,7 +2706,7 @@
         <v>83</v>
       </c>
       <c r="E15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2718,7 +2714,7 @@
         <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
         <v>82</v>
@@ -2727,7 +2723,7 @@
         <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2735,7 +2731,7 @@
         <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
         <v>84</v>
@@ -2749,7 +2745,7 @@
         <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
         <v>53</v>
@@ -2758,7 +2754,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2766,7 +2762,7 @@
         <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
@@ -2783,7 +2779,7 @@
         <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
         <v>91</v>
@@ -2792,7 +2788,7 @@
         <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2800,7 +2796,7 @@
         <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
         <v>105</v>
@@ -2809,7 +2805,7 @@
         <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2817,7 +2813,7 @@
         <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
         <v>91</v>
@@ -2826,7 +2822,7 @@
         <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2834,7 +2830,7 @@
         <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
         <v>93</v>
@@ -2848,7 +2844,7 @@
         <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
         <v>99</v>
@@ -2862,7 +2858,7 @@
         <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" t="s">
         <v>101</v>
@@ -2876,7 +2872,7 @@
         <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" t="s">
         <v>93</v>
@@ -2885,7 +2881,7 @@
         <v>115</v>
       </c>
       <c r="E26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2893,7 +2889,7 @@
         <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
         <v>105</v>
@@ -2902,7 +2898,7 @@
         <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2910,7 +2906,7 @@
         <v>134</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
         <v>93</v>
@@ -2927,7 +2923,7 @@
         <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
         <v>45</v>
@@ -2936,7 +2932,7 @@
         <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" ht="12" customHeight="1" spans="1:5">
@@ -2944,7 +2940,7 @@
         <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" t="s">
         <v>105</v>
@@ -2953,7 +2949,7 @@
         <v>83</v>
       </c>
       <c r="E30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" ht="12" customHeight="1" spans="1:5">
@@ -2961,7 +2957,7 @@
         <v>134</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
@@ -2970,7 +2966,7 @@
         <v>27</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2978,7 +2974,7 @@
         <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>101</v>
@@ -2992,13 +2988,13 @@
         <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
         <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3006,7 +3002,7 @@
         <v>134</v>
       </c>
       <c r="B34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C34" t="s">
         <v>23</v>
@@ -3017,10 +3013,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
         <v>110</v>
@@ -3034,10 +3030,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
@@ -3048,10 +3044,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -3062,10 +3058,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C38" t="s">
         <v>112</v>
@@ -3076,10 +3072,10 @@
     </row>
     <row r="39" customFormat="1" spans="1:4">
       <c r="A39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C39" t="s">
         <v>61</v>
@@ -3090,10 +3086,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C40" t="s">
         <v>116</v>
@@ -3104,10 +3100,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41" t="s">
         <v>101</v>
@@ -3118,10 +3114,10 @@
     </row>
     <row r="42" customFormat="1" spans="1:4">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C42" t="s">
         <v>23</v>
@@ -3175,16 +3171,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3192,7 +3188,7 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -3206,7 +3202,7 @@
         <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -3223,7 +3219,7 @@
         <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
@@ -3240,7 +3236,7 @@
         <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -3280,7 +3276,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3328,7 +3324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -3344,13 +3340,10 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>135</v>
@@ -3377,8 +3370,8 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://192.168.198.202/annotation-tool/#/user/login" tooltip="http://192.168.198.202/annotation-tool/#/user/login"/>
     <hyperlink ref="D3" r:id="rId2" display="http://192.168.198.202/chronic-care/#/login"/>
+    <hyperlink ref="F3" r:id="rId3"/>
     <hyperlink ref="D4" r:id="rId2" display="http://192.168.198.202/chronic-care/#/login"/>
-    <hyperlink ref="F3" r:id="rId3" display="http://192.168.198.175:4444/wd/hub/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3409,34 +3402,34 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:10">
       <c r="A1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3496,18 +3489,18 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3518,7 +3511,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3529,7 +3522,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3551,7 +3544,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -3562,7 +3555,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -3573,7 +3566,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -3584,7 +3577,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -3633,16 +3626,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3650,7 +3643,7 @@
         <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3664,7 +3657,7 @@
         <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -3673,7 +3666,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3681,7 +3674,7 @@
         <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -3698,7 +3691,7 @@
         <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -3747,16 +3740,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3764,7 +3757,7 @@
         <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -3779,7 +3772,7 @@
         <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>30</v>
@@ -3793,7 +3786,7 @@
         <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -3807,7 +3800,7 @@
         <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>48</v>
@@ -3821,7 +3814,7 @@
         <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
@@ -3835,7 +3828,7 @@
         <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
@@ -3882,16 +3875,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3899,7 +3892,7 @@
         <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -3914,7 +3907,7 @@
         <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -3923,7 +3916,7 @@
         <v>102</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3931,7 +3924,7 @@
         <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -3940,7 +3933,7 @@
         <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3948,7 +3941,7 @@
         <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -3957,7 +3950,7 @@
         <v>104</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3965,7 +3958,7 @@
         <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -3974,7 +3967,7 @@
         <v>108</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3982,7 +3975,7 @@
         <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -3991,7 +3984,7 @@
         <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3999,7 +3992,7 @@
         <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -4008,7 +4001,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4016,7 +4009,7 @@
         <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
@@ -4025,7 +4018,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4033,7 +4026,7 @@
         <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
         <v>41</v>
@@ -4042,7 +4035,7 @@
         <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4050,7 +4043,7 @@
         <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -4059,7 +4052,7 @@
         <v>104</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4067,7 +4060,7 @@
         <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -4081,7 +4074,7 @@
         <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -4090,7 +4083,7 @@
         <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4098,7 +4091,7 @@
         <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
@@ -4107,7 +4100,7 @@
         <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4115,7 +4108,7 @@
         <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
@@ -4124,7 +4117,7 @@
         <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4132,7 +4125,7 @@
         <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -4141,7 +4134,7 @@
         <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4149,7 +4142,7 @@
         <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -4158,7 +4151,7 @@
         <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4166,7 +4159,7 @@
         <v>131</v>
       </c>
       <c r="B18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
         <v>66</v>
@@ -4180,7 +4173,7 @@
         <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C19" t="s">
         <v>64</v>
@@ -4194,7 +4187,7 @@
         <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C20" t="s">
         <v>60</v>
@@ -4208,7 +4201,7 @@
         <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
         <v>64</v>
@@ -4222,7 +4215,7 @@
         <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" t="s">
         <v>75</v>
@@ -4231,7 +4224,7 @@
         <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4239,7 +4232,7 @@
         <v>131</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
         <v>78</v>
@@ -4248,7 +4241,7 @@
         <v>83</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4256,13 +4249,13 @@
         <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -4303,7 +4296,7 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
@@ -4317,10 +4310,10 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D2" s="2">
         <v>12345678</v>
@@ -4328,13 +4321,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D3" s="2">
         <v>12345678</v>
@@ -4380,16 +4373,16 @@
         <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4397,7 +4390,7 @@
         <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -4411,7 +4404,7 @@
         <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -4420,7 +4413,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4428,7 +4421,7 @@
         <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -4445,7 +4438,7 @@
         <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -667,8 +667,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -703,6 +703,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -717,6 +724,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -724,8 +739,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,9 +749,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,14 +789,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -764,7 +796,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,47 +823,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,12 +857,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -875,43 +869,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,43 +899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,7 +917,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,13 +941,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,31 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,17 +1045,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,15 +1068,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,30 +1083,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,151 +1112,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3276,7 +3276,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3349,7 +3349,7 @@
         <v>135</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>136</v>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" activeTab="1"/>
+    <workbookView windowWidth="18165" windowHeight="7110" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -665,10 +665,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -703,7 +703,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,8 +716,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,10 +740,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -757,23 +773,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -784,14 +791,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -810,21 +809,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,12 +851,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -869,7 +863,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,157 +1025,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,6 +1047,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1054,20 +1065,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1087,32 +1110,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1128,141 +1125,144 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,22 +1271,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1629,7 +1629,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2292,8 +2292,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2466,8 +2466,8 @@
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3155,7 +3155,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D9:D10"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -3273,10 +3273,10 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3315,7 +3315,7 @@
         <v>132</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>133</v>
@@ -3332,7 +3332,7 @@
         <v>135</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>136</v>
@@ -3349,7 +3349,7 @@
         <v>135</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>136</v>
@@ -3387,7 +3387,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -3478,7 +3478,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3610,7 +3610,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -3859,8 +3859,8 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4281,14 +4281,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="25.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="12.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="19.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
@@ -4319,7 +4319,7 @@
         <v>12345678</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="15" customHeight="1" spans="1:4">
       <c r="A3" t="s">
         <v>137</v>
       </c>
@@ -4357,7 +4357,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18165" windowHeight="7110" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="27765" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -666,9 +666,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -703,7 +703,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,6 +718,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -725,7 +740,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,14 +780,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -755,25 +816,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -781,50 +825,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,7 +851,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,37 +977,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,85 +1019,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,43 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,11 +1047,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,8 +1057,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,17 +1078,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,159 +1128,141 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,22 +1271,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3273,10 +3273,10 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3315,7 +3315,7 @@
         <v>132</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>133</v>
@@ -3332,7 +3332,7 @@
         <v>135</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>136</v>
@@ -3349,7 +3349,7 @@
         <v>135</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>136</v>
@@ -3859,7 +3859,7 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -666,9 +666,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -709,13 +709,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -731,7 +724,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -747,18 +739,18 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -778,9 +770,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,13 +787,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,9 +800,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,13 +825,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,13 +851,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +881,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,25 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,30 +929,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -965,13 +941,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,19 +971,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,25 +1019,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,13 +1078,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,21 +1118,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1142,127 +1131,138 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,19 +1271,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2467,7 +2467,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A38" sqref="$A38:$XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3276,7 +3276,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3332,7 +3332,7 @@
         <v>135</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>136</v>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" activeTab="1"/>
+    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
     <sheet name="TestCases" sheetId="3" r:id="rId2"/>
     <sheet name="Config" sheetId="17" r:id="rId3"/>
     <sheet name="Flow" sheetId="19" r:id="rId4"/>
-    <sheet name="AnnotationLoginPage" sheetId="22" r:id="rId5"/>
-    <sheet name="AnnotationHomePage" sheetId="23" r:id="rId6"/>
-    <sheet name="AnnotationImplementPage" sheetId="24" r:id="rId7"/>
+    <sheet name="AnnotationLoginPage" sheetId="22" state="hidden" r:id="rId5"/>
+    <sheet name="AnnotationHomePage" sheetId="23" state="hidden" r:id="rId6"/>
+    <sheet name="AnnotationImplementPage" sheetId="24" state="hidden" r:id="rId7"/>
     <sheet name="Login" sheetId="29" r:id="rId8"/>
     <sheet name="CCMLoginPage" sheetId="25" r:id="rId9"/>
     <sheet name="CCMMemberPage" sheetId="26" r:id="rId10"/>
     <sheet name="CCMChronicPage" sheetId="27" r:id="rId11"/>
     <sheet name="CCMEnrollmentPage" sheetId="28" r:id="rId12"/>
     <sheet name="CCMChronicLogPage" sheetId="30" r:id="rId13"/>
+    <sheet name="CCMLoginPageModel" sheetId="31" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="Acceptable">PageObjectModel!$N$2:$N$4</definedName>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="213">
   <si>
     <t>Page</t>
   </si>
@@ -108,6 +109,9 @@
     <t>YesNo</t>
   </si>
   <si>
+    <t>FindBy</t>
+  </si>
+  <si>
     <t>click</t>
   </si>
   <si>
@@ -144,6 +148,9 @@
     <t>YES</t>
   </si>
   <si>
+    <t>ById</t>
+  </si>
+  <si>
     <t>enter</t>
   </si>
   <si>
@@ -174,6 +181,9 @@
     <t>NO</t>
   </si>
   <si>
+    <t>ByCss</t>
+  </si>
+  <si>
     <t>focus</t>
   </si>
   <si>
@@ -204,6 +214,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>ByXPath</t>
+  </si>
+  <si>
     <t>blur</t>
   </si>
   <si>
@@ -225,6 +238,9 @@
     <t>HomePhoneNumber</t>
   </si>
   <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
     <t>select</t>
   </si>
   <si>
@@ -240,6 +256,9 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>ByTag</t>
+  </si>
+  <si>
     <t>check</t>
   </si>
   <si>
@@ -249,6 +268,9 @@
     <t>ActiveOptions[1]</t>
   </si>
   <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
     <t>doubleClick</t>
   </si>
   <si>
@@ -258,6 +280,9 @@
     <t>ActiveOptions[2]</t>
   </si>
   <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
     <t>hover</t>
   </si>
   <si>
@@ -267,6 +292,9 @@
     <t>ActiveOptions[3]</t>
   </si>
   <si>
+    <t>ByName</t>
+  </si>
+  <si>
     <t>waitForVisible</t>
   </si>
   <si>
@@ -369,189 +397,192 @@
     <t>SubmitButton</t>
   </si>
   <si>
+    <t>selectPartialContextByIndex</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>sendKey</t>
+  </si>
+  <si>
+    <t>ErrorMessage[1]</t>
+  </si>
+  <si>
+    <t>sendKeyByRobot</t>
+  </si>
+  <si>
+    <t>ErrorMessage[2]</t>
+  </si>
+  <si>
+    <t>rightClick</t>
+  </si>
+  <si>
+    <t>[css](background-color)</t>
+  </si>
+  <si>
+    <t>ConsentValue</t>
+  </si>
+  <si>
+    <t>[attr](style)</t>
+  </si>
+  <si>
+    <t>Consent</t>
+  </si>
+  <si>
+    <t>[css](border-bottom-color)</t>
+  </si>
+  <si>
+    <t>MemberStatus</t>
+  </si>
+  <si>
+    <t>takescreen</t>
+  </si>
+  <si>
+    <t>EnrollmentDate</t>
+  </si>
+  <si>
+    <t>select_enrollment</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>select_care_plan</t>
+  </si>
+  <si>
+    <t>select_chronic_log</t>
+  </si>
+  <si>
+    <t>select_ccm_if_visible</t>
+  </si>
+  <si>
+    <t>select_rpm_if_visible</t>
+  </si>
+  <si>
+    <t>select_first_date_of_next_month</t>
+  </si>
+  <si>
+    <t>[log_is_changed]</t>
+  </si>
+  <si>
+    <t>TestCase ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>Site URL</t>
+  </si>
+  <si>
+    <t>Remote Hub</t>
+  </si>
+  <si>
+    <t>AnnotationTool</t>
+  </si>
+  <si>
+    <t>annotation tool</t>
+  </si>
+  <si>
+    <t>http://192.168.198.202/annotation-tool/#/user/login</t>
+  </si>
+  <si>
+    <t>ChronicCare_Demographics</t>
+  </si>
+  <si>
+    <t>chronic-care demo</t>
+  </si>
+  <si>
+    <t>http://192.168.198.202/chronic-care/#/login</t>
+  </si>
+  <si>
+    <t>ChronicCare_Enrollment</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>waitOrDelay</t>
+  </si>
+  <si>
+    <t>redirect</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>implict</t>
+  </si>
+  <si>
+    <t>explict</t>
+  </si>
+  <si>
+    <t>retry</t>
+  </si>
+  <si>
+    <t>sleepTime</t>
+  </si>
+  <si>
+    <t>FlowName</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>ExcelModel</t>
+  </si>
+  <si>
+    <t>AnnotationLogin</t>
+  </si>
+  <si>
+    <t>ChooseAnnotaion</t>
+  </si>
+  <si>
+    <t>ImplementAnnotation</t>
+  </si>
+  <si>
+    <t>CCMMemberList</t>
+  </si>
+  <si>
+    <t>CCMChronic</t>
+  </si>
+  <si>
+    <t>CCMEnrollment</t>
+  </si>
+  <si>
+    <t>CCMChronicLog</t>
+  </si>
+  <si>
+    <t>TestGroup ID</t>
+  </si>
+  <si>
+    <t>Target Name</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>TS_01</t>
+  </si>
+  <si>
+    <t>dong</t>
+  </si>
+  <si>
     <t>drogAndDropRichBox</t>
   </si>
   <si>
-    <t>ErrorMessage</t>
-  </si>
-  <si>
-    <t>selectPartialContextByIndex</t>
-  </si>
-  <si>
-    <t>ErrorMessage[1]</t>
-  </si>
-  <si>
-    <t>sendKey</t>
-  </si>
-  <si>
-    <t>ErrorMessage[2]</t>
-  </si>
-  <si>
-    <t>sendKeyByRobot</t>
-  </si>
-  <si>
-    <t>rightClick</t>
-  </si>
-  <si>
-    <t>ConsentValue</t>
-  </si>
-  <si>
-    <t>[css](background-color)</t>
-  </si>
-  <si>
-    <t>Consent</t>
-  </si>
-  <si>
-    <t>[attr](style)</t>
-  </si>
-  <si>
-    <t>MemberStatus</t>
-  </si>
-  <si>
-    <t>[css](border-bottom-color)</t>
-  </si>
-  <si>
-    <t>EnrollmentDate</t>
-  </si>
-  <si>
-    <t>takescreen</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>select_enrollment</t>
-  </si>
-  <si>
-    <t>select_care_plan</t>
-  </si>
-  <si>
-    <t>select_chronic_log</t>
-  </si>
-  <si>
-    <t>select_ccm_if_visible</t>
-  </si>
-  <si>
-    <t>select_rpm_if_visible</t>
-  </si>
-  <si>
-    <t>select_first_date_of_next_month</t>
-  </si>
-  <si>
-    <t>[log_is_changed]</t>
-  </si>
-  <si>
-    <t>TestCase ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>Site URL</t>
-  </si>
-  <si>
-    <t>Remote Hub</t>
-  </si>
-  <si>
-    <t>AnnotationTool</t>
-  </si>
-  <si>
-    <t>annotation tool</t>
-  </si>
-  <si>
-    <t>http://192.168.198.202/annotation-tool/#/user/login</t>
-  </si>
-  <si>
-    <t>ChronicCare_Demographics</t>
-  </si>
-  <si>
-    <t>chronic-care demo</t>
-  </si>
-  <si>
-    <t>http://192.168.198.202/chronic-care/#/login</t>
-  </si>
-  <si>
-    <t>ChronicCare_Enrollment</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>waitOrDelay</t>
-  </si>
-  <si>
-    <t>redirect</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>implict</t>
-  </si>
-  <si>
-    <t>explict</t>
-  </si>
-  <si>
-    <t>retry</t>
-  </si>
-  <si>
-    <t>sleepTime</t>
-  </si>
-  <si>
-    <t>FlowName</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <t>AnnotationLogin</t>
-  </si>
-  <si>
-    <t>ChooseAnnotaion</t>
-  </si>
-  <si>
-    <t>ImplementAnnotation</t>
-  </si>
-  <si>
-    <t>CCMMemberList</t>
-  </si>
-  <si>
-    <t>CCMChronic</t>
-  </si>
-  <si>
-    <t>CCMEnrollment</t>
-  </si>
-  <si>
-    <t>CCMChronicLog</t>
-  </si>
-  <si>
-    <t>TestGroup ID</t>
-  </si>
-  <si>
-    <t>Target Name</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>TS_01</t>
-  </si>
-  <si>
-    <t>dong</t>
-  </si>
-  <si>
     <t>10,10,800,300</t>
   </si>
   <si>
@@ -658,6 +689,18 @@
   </si>
   <si>
     <t>TS_03</t>
+  </si>
+  <si>
+    <t>FindBy Value</t>
+  </si>
+  <si>
+    <t>ShouldWait</t>
+  </si>
+  <si>
+    <t>ShouldDelay</t>
+  </si>
+  <si>
+    <t>ShouldBlur</t>
   </si>
 </sst>
 </file>
@@ -665,10 +708,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -709,11 +752,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,8 +766,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,6 +791,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,26 +821,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -786,17 +844,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -808,25 +865,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -851,7 +894,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,31 +954,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,25 +978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,7 +996,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,43 +1020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,30 +1038,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1032,6 +1045,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,6 +1106,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1074,6 +1132,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1093,30 +1171,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1131,108 +1185,97 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1241,28 +1284,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1271,19 +1314,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1624,12 +1667,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4:H8"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1638,11 +1681,13 @@
     <col min="2" max="2" width="13.1238095238095" customWidth="1"/>
     <col min="3" max="3" width="9.87619047619048" customWidth="1"/>
     <col min="4" max="4" width="13.8761904761905" customWidth="1"/>
-    <col min="5" max="12" width="20.8571428571429" customWidth="1"/>
-    <col min="14" max="14" width="10.1238095238095" customWidth="1"/>
+    <col min="5" max="7" width="20.8571428571429" hidden="1" customWidth="1"/>
+    <col min="8" max="12" width="20.8571428571429" customWidth="1"/>
+    <col min="13" max="13" width="14.5714285714286" customWidth="1"/>
+    <col min="14" max="14" width="16.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:15">
+    <row r="1" s="6" customFormat="1" spans="1:16">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1688,482 +1733,504 @@
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>57</v>
+      </c>
+      <c r="P5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>71</v>
+      </c>
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="P9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K13" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K17" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K18" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K26" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K27" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K28" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K30" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K31" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K32" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K33" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K34" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2192,47 +2259,47 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E3" s="4">
         <v>40</v>
@@ -2240,30 +2307,30 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4"/>
     </row>
@@ -2305,106 +2372,106 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2412,33 +2479,33 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -2480,295 +2547,295 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>123</v>
@@ -2776,143 +2843,143 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>1234567890</v>
@@ -2920,210 +2987,210 @@
     </row>
     <row r="29" ht="12" customHeight="1" spans="1:5">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" ht="12" customHeight="1" spans="1:5">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" ht="12" customHeight="1" spans="1:5">
       <c r="A31" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D33" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:4">
       <c r="A39" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B41" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:4">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3155,7 +3222,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -3168,47 +3235,47 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -3216,16 +3283,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -3233,16 +3300,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -3268,15 +3335,64 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="13.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="14.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="17.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="12.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+      <formula1>TestCaseID</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -3289,73 +3405,73 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:6">
       <c r="A1" s="6" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -3387,7 +3503,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -3402,34 +3518,34 @@
   <sheetData>
     <row r="1" s="6" customFormat="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3458,7 +3574,7 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>5</v>
@@ -3473,34 +3589,38 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="27.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="12.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:3">
+    <row r="1" s="6" customFormat="1" spans="1:4">
       <c r="A1" s="6" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>157</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -3508,10 +3628,13 @@
       <c r="C2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -3519,10 +3642,13 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3530,21 +3656,27 @@
       <c r="C4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -3552,10 +3684,13 @@
       <c r="C6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
@@ -3563,10 +3698,13 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -3574,15 +3712,21 @@
       <c r="C8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3591,7 +3735,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>PageObjectModel!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C5 C6 C7 C8 C3:C4 C9:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 D2 D3 D4 C5 D5 C6 D6 C7 D7 C8 D8 D9 C3:C4 C9:C1048576">
       <formula1>Boolean</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A3:A1048576">
@@ -3623,64 +3767,64 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="2">
         <v>12345678</v>
@@ -3688,16 +3832,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3737,104 +3881,104 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3872,390 +4016,390 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +4425,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -4293,27 +4437,27 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D2" s="2">
         <v>12345678</v>
@@ -4321,13 +4465,13 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:4">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D3" s="2">
         <v>12345678</v>
@@ -4357,7 +4501,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -4370,64 +4514,64 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4" s="2">
         <v>12345678</v>
@@ -4435,16 +4579,16 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/demo/testData/testCase.xlsx
+++ b/demo/testData/testCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27765" windowHeight="12510" firstSheet="7" activeTab="13"/>
+    <workbookView windowWidth="27765" windowHeight="12510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PageObjectModel" sheetId="5" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="CCMEnrollmentPage" sheetId="28" r:id="rId12"/>
     <sheet name="CCMChronicLogPage" sheetId="30" r:id="rId13"/>
     <sheet name="CCMLoginPageModel" sheetId="31" r:id="rId14"/>
+    <sheet name="CCMChronicLogPageModel" sheetId="32" r:id="rId15"/>
+    <sheet name="CCMEnrollmentPageModel" sheetId="33" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="Acceptable">PageObjectModel!$N$2:$N$4</definedName>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="277">
   <si>
     <t>Page</t>
   </si>
@@ -112,6 +114,9 @@
     <t>FindBy</t>
   </si>
   <si>
+    <t>Field Type</t>
+  </si>
+  <si>
     <t>click</t>
   </si>
   <si>
@@ -151,6 +156,9 @@
     <t>ById</t>
   </si>
   <si>
+    <t>Input</t>
+  </si>
+  <si>
     <t>enter</t>
   </si>
   <si>
@@ -184,6 +192,9 @@
     <t>ByCss</t>
   </si>
   <si>
+    <t>Button</t>
+  </si>
+  <si>
     <t>focus</t>
   </si>
   <si>
@@ -217,6 +228,9 @@
     <t>ByXPath</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>blur</t>
   </si>
   <si>
@@ -241,6 +255,9 @@
     <t>ByClassName</t>
   </si>
   <si>
+    <t>CheckBox</t>
+  </si>
+  <si>
     <t>select</t>
   </si>
   <si>
@@ -259,6 +276,9 @@
     <t>ByTag</t>
   </si>
   <si>
+    <t>Div</t>
+  </si>
+  <si>
     <t>check</t>
   </si>
   <si>
@@ -271,6 +291,9 @@
     <t>ByLinkText</t>
   </si>
   <si>
+    <t>DropDown</t>
+  </si>
+  <si>
     <t>doubleClick</t>
   </si>
   <si>
@@ -283,6 +306,9 @@
     <t>ByPartialLinkText</t>
   </si>
   <si>
+    <t>H</t>
+  </si>
+  <si>
     <t>hover</t>
   </si>
   <si>
@@ -295,24 +321,36 @@
     <t>ByName</t>
   </si>
   <si>
+    <t>Header</t>
+  </si>
+  <si>
     <t>waitForVisible</t>
   </si>
   <si>
     <t>BirthDate</t>
   </si>
   <si>
+    <t>Icon</t>
+  </si>
+  <si>
     <t>waitForClickable</t>
   </si>
   <si>
     <t>Organization</t>
   </si>
   <si>
+    <t>Image</t>
+  </si>
+  <si>
     <t>waitForHidden</t>
   </si>
   <si>
     <t>Facility</t>
   </si>
   <si>
+    <t>Lable</t>
+  </si>
+  <si>
     <t>waitSpecificTime</t>
   </si>
   <si>
@@ -322,6 +360,9 @@
     <t>City</t>
   </si>
   <si>
+    <t>Li</t>
+  </si>
+  <si>
     <t>clear</t>
   </si>
   <si>
@@ -331,6 +372,9 @@
     <t>CityInput</t>
   </si>
   <si>
+    <t>Link</t>
+  </si>
+  <si>
     <t>[value]</t>
   </si>
   <si>
@@ -340,69 +384,105 @@
     <t>State</t>
   </si>
   <si>
+    <t>Option</t>
+  </si>
+  <si>
     <t>[text]</t>
   </si>
   <si>
     <t>AdvancedDirectivesOptions[1]</t>
   </si>
   <si>
+    <t>P</t>
+  </si>
+  <si>
     <t>[class]</t>
   </si>
   <si>
     <t>AdvancedDirectivesOptions[2]</t>
   </si>
   <si>
+    <t>RadioButton</t>
+  </si>
+  <si>
     <t>[visible]</t>
   </si>
   <si>
     <t>AdvancedDirectivesOptions[3]</t>
   </si>
   <si>
+    <t>Span</t>
+  </si>
+  <si>
     <t>[size]</t>
   </si>
   <si>
+    <t>Strong</t>
+  </si>
+  <si>
     <t>clickifenabled</t>
   </si>
   <si>
     <t>HomePhoneNumberExt</t>
   </si>
   <si>
+    <t>Textbox</t>
+  </si>
+  <si>
     <t>clickIfVisible</t>
   </si>
   <si>
     <t>CellNumber</t>
   </si>
   <si>
+    <t>Ul</t>
+  </si>
+  <si>
     <t>waitTextToBePresented</t>
   </si>
   <si>
     <t>CellNumberExt</t>
   </si>
   <si>
+    <t>List&lt;RadioButton&gt;</t>
+  </si>
+  <si>
     <t>waitForCheck</t>
   </si>
   <si>
     <t>HomePhoneNumberPerferred</t>
   </si>
   <si>
+    <t>List&lt;Div&gt;</t>
+  </si>
+  <si>
     <t>waitUtilSelected</t>
   </si>
   <si>
     <t>CellNumberPerferred</t>
   </si>
   <si>
+    <t>List&lt;Li&gt;</t>
+  </si>
+  <si>
     <t>clickAndHold</t>
   </si>
   <si>
     <t>SubmitButton</t>
   </si>
   <si>
+    <t>CCMDatePicker</t>
+  </si>
+  <si>
     <t>selectPartialContextByIndex</t>
   </si>
   <si>
     <t>ErrorMessage</t>
   </si>
   <si>
+    <t>CCMLogDiff</t>
+  </si>
+  <si>
     <t>sendKey</t>
   </si>
   <si>
@@ -418,6 +498,9 @@
     <t>rightClick</t>
   </si>
   <si>
+    <t>CCMMemberList</t>
+  </si>
+  <si>
     <t>[css](background-color)</t>
   </si>
   <si>
@@ -550,9 +633,6 @@
     <t>ImplementAnnotation</t>
   </si>
   <si>
-    <t>CCMMemberList</t>
-  </si>
-  <si>
     <t>CCMChronic</t>
   </si>
   <si>
@@ -701,6 +781,120 @@
   </si>
   <si>
     <t>ShouldBlur</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>GoNext</t>
+  </si>
+  <si>
+    <t>LogList</t>
+  </si>
+  <si>
+    <t>.//div[contains(@class,'chronicLog')]//table/tbody/tr</t>
+  </si>
+  <si>
+    <t>.//div[text()='Date of Birth']</t>
+  </si>
+  <si>
+    <t>.//div[text()='Email']</t>
+  </si>
+  <si>
+    <t>.//div[text()='Home Phone Number']</t>
+  </si>
+  <si>
+    <t>.//div[contains(@class,'ccmMember')]//ul[@role='menu']</t>
+  </si>
+  <si>
+    <t>.//div[@id='demographics']//button</t>
+  </si>
+  <si>
+    <t>.//div[@id='enrollment']//button</t>
+  </si>
+  <si>
+    <t>.//div[text()='Consent:']/parent::div//span</t>
+  </si>
+  <si>
+    <t>primary_care_id</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>ActiveOptions</t>
+  </si>
+  <si>
+    <t>.//div[contains(@class, 'ant-select-dropdown') and not(contains(@class,'ant-select-dropdown-hidden'))]//li</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>organization_id</t>
+  </si>
+  <si>
+    <t>facility_id</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>.//input[@id='city']</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>AdvancedDirectivesOptions</t>
+  </si>
+  <si>
+    <t>.//label[@title='Advanced Directives']/parent::div/parent::div//input</t>
+  </si>
+  <si>
+    <t>home_phone_number</t>
+  </si>
+  <si>
+    <t>home_phone_number_ext</t>
+  </si>
+  <si>
+    <t>cell_number</t>
+  </si>
+  <si>
+    <t>cell_number_ext</t>
+  </si>
+  <si>
+    <t>.//input[@value='home_phone_number']</t>
+  </si>
+  <si>
+    <t>.//input[@value='cell_number']</t>
+  </si>
+  <si>
+    <t>ant-form-explain</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>member_status</t>
+  </si>
+  <si>
+    <t>enrollment_date</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>ant-btn-primary</t>
   </si>
 </sst>
 </file>
@@ -873,7 +1067,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -883,6 +1077,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,12 +1291,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1188,85 +1415,85 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1275,7 +1502,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1287,25 +1514,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1314,34 +1541,38 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1667,12 +1898,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1687,550 +1918,637 @@
     <col min="14" max="14" width="16.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:16">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:17">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="D2" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>29</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="D3" s="12"/>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
         <v>33</v>
       </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>41</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>62</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>69</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>74</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>79</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
         <v>73</v>
       </c>
-      <c r="G9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
       <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
-      </c>
       <c r="K11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+        <v>90</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
       <c r="B12" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
+        <v>93</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
       <c r="B13" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
+        <v>97</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
       <c r="B14" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
+        <v>101</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
       <c r="B15" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
+        <v>105</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
       <c r="B16" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
+        <v>108</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
       <c r="B17" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="K17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
+        <v>111</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
       <c r="B18" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="K18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
+        <v>114</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
       <c r="B19" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
+        <v>61</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
       <c r="B20" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="K20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
+        <v>119</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
       <c r="B21" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
+        <v>122</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
       <c r="B22" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
+        <v>125</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
       <c r="B23" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
+        <v>128</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
       <c r="B24" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
+        <v>131</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
       <c r="B25" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="K25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
+        <v>134</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
       <c r="B26" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="K26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
+        <v>137</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
       <c r="B27" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="K27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
+        <v>140</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
       <c r="B28" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="K28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
+        <v>142</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
       <c r="B29" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="K30" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c r="K31" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="K32" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="K33" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="K34" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2259,80 +2577,80 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="4">
+        <v>215</v>
+      </c>
+      <c r="E3" s="8">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="E5" s="8"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -2372,106 +2690,106 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2479,33 +2797,33 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -2547,295 +2865,295 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>200</v>
+        <v>31</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>123</v>
@@ -2843,143 +3161,143 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
-      